--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-resource\02_db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EE50CE-62F7-4A8F-95C7-169241F3E833}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAABD17-D48D-4567-A73C-D5EBBA8FCDE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="900" windowWidth="17190" windowHeight="16125" tabRatio="361" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="5460" yWindow="2265" windowWidth="19635" windowHeight="14025" tabRatio="560" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="112">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -541,18 +541,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウント回復トークン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ACCOUNT_RECOVERY_TOKEN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント回復トークンID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -588,6 +576,29 @@
   </si>
   <si>
     <t>SHA-256でハッシュ化して保存</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_BMI_RANGE_MT_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BMI範囲マスタID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント回復トークン情報</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACCOUNT_RECOVERY_TOKEN_DATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント回復トークン情報ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1042,20 +1053,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B35" sqref="B35"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.25" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="18" style="11" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.375" style="11" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.125" style="11" customWidth="1"/>
     <col min="11" max="11" width="36.5" style="11" customWidth="1"/>
@@ -1837,10 +1848,10 @@
         <v>74</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>77</v>
@@ -1977,10 +1988,10 @@
     </row>
     <row r="35" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>74</v>
@@ -1993,13 +2004,13 @@
         <v>74</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
@@ -2007,10 +2018,10 @@
     </row>
     <row r="36" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2033,10 +2044,10 @@
     </row>
     <row r="37" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2045,28 +2056,28 @@
         <v>74</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>71</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2075,10 +2086,10 @@
         <v>74</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>97</v>
@@ -2089,10 +2100,10 @@
     </row>
     <row r="39" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2115,10 +2126,10 @@
     </row>
     <row r="40" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2473,7 +2484,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="31" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="27" orientation="portrait" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2481,16 +2492,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D7121B-1215-48D4-A4D3-45D65E41B069}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="3.375" style="1"/>
   </cols>
   <sheetData>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAABD17-D48D-4567-A73C-D5EBBA8FCDE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58378BC-BAA8-4173-8259-76D3E212A022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5460" yWindow="2265" windowWidth="19635" windowHeight="14025" tabRatio="560" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="110">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -445,10 +445,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BMI範囲ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -458,10 +454,6 @@
   </si>
   <si>
     <t>SEQ_HEALTH_INFO_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_BMI_RANGE_ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -700,7 +692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,9 +712,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1057,24 +1046,24 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18" style="11" customWidth="1"/>
-    <col min="7" max="7" width="29.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="36.5" style="11" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="27.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="18" style="10" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="10" customWidth="1"/>
+    <col min="11" max="11" width="36.5" style="10" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="9" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
@@ -1091,7 +1080,7 @@
         <v>75</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1113,1364 +1102,1364 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+    </row>
+    <row r="35" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I35" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+    </row>
+    <row r="36" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+    </row>
+    <row r="37" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="G37" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10" t="s">
+      <c r="J37" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="G38" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="G39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I22" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="10" t="s">
+      <c r="G40" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H40" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I34" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-    </row>
-    <row r="35" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
+      <c r="I40" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L63" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
@@ -2522,104 +2511,104 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58378BC-BAA8-4173-8259-76D3E212A022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A554B75F-16E0-483A-BAC5-77EA68A37A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="2265" windowWidth="19635" windowHeight="14025" tabRatio="560" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="525" yWindow="2670" windowWidth="21600" windowHeight="14415" tabRatio="560" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$63</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -408,9 +408,6 @@
     <t>RANGE_MAX</t>
   </si>
   <si>
-    <t>肥満度ステータス</t>
-  </si>
-  <si>
     <t>OVER_WEIGHT_STATUS</t>
   </si>
   <si>
@@ -591,6 +588,10 @@
   </si>
   <si>
     <t>アカウント回復トークン情報ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肥満度ステータス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1043,10 +1044,10 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19:H19"/>
+      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1077,10 +1078,10 @@
         <v>23</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>6</v>
@@ -1109,23 +1110,23 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -1142,7 +1143,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>7</v>
@@ -1151,13 +1152,13 @@
         <v>8</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L3" s="9"/>
     </row>
@@ -1171,10 +1172,10 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>41</v>
@@ -1183,10 +1184,10 @@
         <v>42</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -1202,7 +1203,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>9</v>
@@ -1211,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>46</v>
@@ -1230,7 +1231,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>10</v>
@@ -1239,7 +1240,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -1263,7 +1264,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>47</v>
@@ -1289,7 +1290,7 @@
         <v>17</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>48</v>
@@ -1308,7 +1309,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>12</v>
@@ -1317,7 +1318,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -1334,7 +1335,7 @@
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>13</v>
@@ -1343,7 +1344,7 @@
         <v>19</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
@@ -1357,23 +1358,23 @@
         <v>20</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -1390,16 +1391,16 @@
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
@@ -1423,7 +1424,7 @@
         <v>24</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>49</v>
@@ -1449,7 +1450,7 @@
         <v>25</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>45</v>
@@ -1475,7 +1476,7 @@
         <v>26</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>45</v>
@@ -1501,7 +1502,7 @@
         <v>27</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>45</v>
@@ -1527,7 +1528,7 @@
         <v>54</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>50</v>
@@ -1553,7 +1554,7 @@
         <v>57</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1571,13 +1572,13 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
@@ -1594,7 +1595,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>12</v>
@@ -1603,7 +1604,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1620,7 +1621,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>13</v>
@@ -1629,7 +1630,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -1643,21 +1644,21 @@
         <v>31</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1681,7 +1682,7 @@
         <v>33</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>46</v>
@@ -1707,7 +1708,7 @@
         <v>34</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>46</v>
@@ -1733,7 +1734,7 @@
         <v>35</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>46</v>
@@ -1759,7 +1760,7 @@
         <v>36</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>46</v>
@@ -1778,7 +1779,7 @@
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>12</v>
@@ -1787,7 +1788,7 @@
         <v>18</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -1804,7 +1805,7 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>13</v>
@@ -1813,7 +1814,7 @@
         <v>19</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -1827,23 +1828,23 @@
         <v>59</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
@@ -1867,7 +1868,7 @@
         <v>61</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
@@ -1891,7 +1892,7 @@
         <v>63</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
@@ -1909,13 +1910,13 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H32" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="I32" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>50</v>
@@ -1934,16 +1935,16 @@
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="I33" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
@@ -1960,16 +1961,16 @@
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="I34" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -1977,29 +1978,29 @@
     </row>
     <row r="35" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="C35" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
@@ -2007,25 +2008,25 @@
     </row>
     <row r="36" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G36" s="9" t="s">
         <v>3</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
@@ -2033,55 +2034,55 @@
     </row>
     <row r="37" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G37" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="I37" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="I37" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="J37" s="9" t="s">
+      <c r="K37" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="L37" s="9"/>
     </row>
     <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
@@ -2089,25 +2090,25 @@
     </row>
     <row r="39" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G39" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="I39" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
@@ -2115,25 +2116,25 @@
     </row>
     <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G40" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H40" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="I40" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
@@ -2500,115 +2501,115 @@
         <v>63</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2658,7 +2659,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>6</v>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A554B75F-16E0-483A-BAC5-77EA68A37A80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9507C-2D02-45AE-AFAA-0F73F3A44158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="2670" windowWidth="21600" windowHeight="14415" tabRatio="560" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="390" yWindow="855" windowWidth="21600" windowHeight="12855" tabRatio="560" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="112">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -592,6 +592,14 @@
   </si>
   <si>
     <t>肥満度ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -599,7 +607,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,28 +634,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -693,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,14 +722,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -725,6 +738,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,13 +1060,13 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.625" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.25" style="10" bestFit="1" customWidth="1"/>
@@ -1064,41 +1080,41 @@
     <col min="13" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1374,7 +1390,7 @@
         <v>77</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
@@ -1976,7 +1992,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="9" t="s">
         <v>106</v>
       </c>
@@ -2006,7 +2022,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="9" t="s">
         <v>106</v>
       </c>
@@ -2032,7 +2048,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>106</v>
       </c>
@@ -2062,7 +2078,7 @@
       </c>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="9" t="s">
         <v>106</v>
       </c>
@@ -2088,7 +2104,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="9" t="s">
         <v>106</v>
       </c>
@@ -2108,13 +2124,13 @@
         <v>66</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="9" t="s">
         <v>106</v>
       </c>
@@ -2494,19 +2510,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>68</v>
       </c>
     </row>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C9507C-2D02-45AE-AFAA-0F73F3A44158}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4462C05-11E8-4F8E-AC33-59200ED17DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="855" windowWidth="21600" windowHeight="12855" tabRatio="560" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="6990" yWindow="915" windowWidth="21600" windowHeight="14160" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="133">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -600,6 +600,72 @@
   </si>
   <si>
     <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API通信情報</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API_COMMUNICATION_DATA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API通信情報ID</t>
+  </si>
+  <si>
+    <t>API名</t>
+  </si>
+  <si>
+    <t>API_NAME</t>
+  </si>
+  <si>
+    <t>ユーザID</t>
+  </si>
+  <si>
+    <t>SEQ_USER_ID</t>
+  </si>
+  <si>
+    <t>HTTPステータス</t>
+  </si>
+  <si>
+    <t>HTTP_STATUS</t>
+  </si>
+  <si>
+    <t>処理結果</t>
+  </si>
+  <si>
+    <t>RESULT</t>
+  </si>
+  <si>
+    <t>エラー詳細</t>
+  </si>
+  <si>
+    <t>DETAIL</t>
+  </si>
+  <si>
+    <t>リクエスト送信日時</t>
+  </si>
+  <si>
+    <t>REQUEST_DATE</t>
+  </si>
+  <si>
+    <t>レスポンス受信日時</t>
+  </si>
+  <si>
+    <t>RESPONSE_DATE</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>SEQ_API_COMMUNICATION_DATA_ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -706,7 +772,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,6 +807,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1059,17 +1128,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
+      <selection pane="bottomRight" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.25" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="18" style="10" customWidth="1"/>
     <col min="7" max="7" width="29.625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43.375" style="10" customWidth="1"/>
@@ -2156,145 +2225,267 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
+    <row r="41" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J42" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+    </row>
+    <row r="45" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+    </row>
+    <row r="49" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+    </row>
+    <row r="50" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="9"/>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4462C05-11E8-4F8E-AC33-59200ED17DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E46C84-8A00-4D1F-94DB-19CDAC7D7118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="915" windowWidth="21600" windowHeight="14160" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="BMI_RANGE_MT" sheetId="3" r:id="rId2"/>
-    <sheet name="TEMPLATE" sheetId="2" r:id="rId3"/>
+    <sheet name="ROOT_ROLE_MT" sheetId="4" r:id="rId3"/>
+    <sheet name="TEMPLATE" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$63</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$82</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="165">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -666,6 +667,160 @@
   </si>
   <si>
     <t>SEQ_API_COMMUNICATION_DATA_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROOT_LOGIN_INFO</t>
+  </si>
+  <si>
+    <t>管理者サイトユーザログイン情報</t>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_ROOT_LOGIN_INFO_ID</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+  </si>
+  <si>
+    <t>DELETE_FLAG</t>
+  </si>
+  <si>
+    <t>パスワード有効期限</t>
+  </si>
+  <si>
+    <t>PASSWORD_EXPIRE</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
+    <t>管理者サイトユーザログイン情報ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ権限</t>
+    <rPh sb="3" eb="5">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者サイト権限マスタ</t>
+    <rPh sb="6" eb="8">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROOT_ROLE_MT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者サイト権限マスタID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_ROOT_ROLE_MT_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ権限</t>
+    <rPh sb="3" eb="5">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ権限名</t>
+    <rPh sb="3" eb="5">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROLE_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROLE_NAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者権限</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>照会権限</t>
+    <rPh sb="0" eb="2">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作成権限</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROOT_LOGIN_INFO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1126,18 +1281,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L63"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H41" sqref="H41"/>
+      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.25" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="18" style="10" customWidth="1"/>
     <col min="7" max="7" width="29.625" style="10" bestFit="1" customWidth="1"/>
@@ -2225,458 +2383,896 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="12" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41" s="12" t="s">
+      <c r="C41" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-    </row>
-    <row r="42" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="12" t="s">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A42" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" s="12" t="s">
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J42" s="12" t="s">
+      <c r="J42" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-    </row>
-    <row r="43" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="12" t="s">
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12" t="s">
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-    </row>
-    <row r="44" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="12" t="s">
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12" t="s">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J44" s="12" t="s">
+      <c r="J44" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-    </row>
-    <row r="45" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="12" t="s">
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12" t="s">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J45" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-    </row>
-    <row r="46" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="12" t="s">
+      <c r="J45" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A46" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12" t="s">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="J46" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-    </row>
-    <row r="47" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="12" t="s">
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A47" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="12" t="s">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-    </row>
-    <row r="48" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="12" t="s">
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A48" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12" t="s">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-    </row>
-    <row r="49" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="12" t="s">
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="12" t="s">
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-    </row>
-    <row r="50" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="12" t="s">
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" s="12" t="s">
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
-      <c r="L55" s="9"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
-      <c r="L56" s="9"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-      <c r="L57" s="9"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+    </row>
+    <row r="51" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+    </row>
+    <row r="52" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L52" s="12"/>
+    </row>
+    <row r="53" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+    </row>
+    <row r="54" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+    </row>
+    <row r="55" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J55" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+    </row>
+    <row r="56" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J56" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+    </row>
+    <row r="57" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+    </row>
+    <row r="58" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+    </row>
+    <row r="59" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+    </row>
+    <row r="60" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+    </row>
+    <row r="61" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+    </row>
+    <row r="62" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+    </row>
+    <row r="63" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L63" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L82" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I63" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I82" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,DATETIME"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F63" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F82" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2689,7 +3285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D7121B-1215-48D4-A4D3-45D65E41B069}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2827,6 +3423,88 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1919F07A-6035-401F-8BBC-36EBD6A36826}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="3.375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8226E27-9270-4524-A864-822221B9E79E}">
   <dimension ref="A1:K69"/>
   <sheetViews>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E46C84-8A00-4D1F-94DB-19CDAC7D7118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5AD870-93C1-443A-8DE7-07FA71111B31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
@@ -19,9 +19,9 @@
     <sheet name="TEMPLATE" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$83</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$83</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="167">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -821,6 +821,14 @@
   </si>
   <si>
     <t>ROOT_LOGIN_INFO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トランザクションID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRANSACTION_ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1281,23 +1289,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B64" sqref="B64"/>
+      <selection pane="bottomRight" activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="18" style="10" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43.375" style="10" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="10" bestFit="1" customWidth="1"/>
@@ -2427,17 +2435,15 @@
         <v>73</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>129</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
@@ -2451,17 +2457,21 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+      <c r="F43" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="G43" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J43" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>129</v>
+      </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
     </row>
@@ -2477,17 +2487,15 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>130</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
@@ -2503,16 +2511,16 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I45" s="9" t="s">
         <v>70</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -2529,16 +2537,16 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I46" s="9" t="s">
         <v>70</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>131</v>
+        <v>73</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -2553,19 +2561,19 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="F47" s="9"/>
       <c r="G47" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J47" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>131</v>
+      </c>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
@@ -2579,12 +2587,14 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
+      <c r="F48" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="G48" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I48" s="9" t="s">
         <v>94</v>
@@ -2603,14 +2613,12 @@
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="F49" s="9"/>
       <c r="G49" s="9" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>94</v>
@@ -2633,10 +2641,10 @@
         <v>73</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>94</v>
@@ -2645,62 +2653,60 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
     </row>
     <row r="52" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="12" t="s">
         <v>134</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+        <v>164</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="F52" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="G52" s="12" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>103</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
       <c r="L52" s="12"/>
     </row>
     <row r="53" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
@@ -2713,22 +2719,22 @@
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
-      <c r="F53" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="F53" s="12"/>
       <c r="G53" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>70</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K53" s="12"/>
+        <v>129</v>
+      </c>
+      <c r="K53" s="12" t="s">
+        <v>103</v>
+      </c>
       <c r="L53" s="12"/>
     </row>
     <row r="54" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
@@ -2745,15 +2751,17 @@
         <v>73</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="J54" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="J54" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
     </row>
@@ -2767,19 +2775,19 @@
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="F55" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="G55" s="12" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>146</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
     </row>
@@ -2795,16 +2803,16 @@
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
       <c r="G56" s="12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="I56" s="12" t="s">
         <v>70</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
@@ -2819,19 +2827,19 @@
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
-      <c r="F57" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="F57" s="12"/>
       <c r="G57" s="12" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J57" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="J57" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="K57" s="12"/>
       <c r="L57" s="12"/>
     </row>
@@ -2849,10 +2857,10 @@
         <v>73</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I58" s="12" t="s">
         <v>94</v>
@@ -2863,29 +2871,25 @@
     </row>
     <row r="59" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>73</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12" t="s">
         <v>73</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="J59" s="12"/>
       <c r="K59" s="12"/>
@@ -2898,24 +2902,26 @@
       <c r="B60" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
+      <c r="C60" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12" t="s">
         <v>73</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>146</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="J60" s="12"/>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
     </row>
@@ -2933,16 +2939,16 @@
         <v>73</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I61" s="12" t="s">
         <v>70</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
@@ -2961,15 +2967,17 @@
         <v>73</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J62" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="J62" s="12" t="s">
+        <v>155</v>
+      </c>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
     </row>
@@ -2987,10 +2995,10 @@
         <v>73</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I63" s="12" t="s">
         <v>94</v>
@@ -2999,19 +3007,31 @@
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
+    <row r="64" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="9"/>
@@ -3265,14 +3285,28 @@
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
     </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L82" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L83" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I82" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I83" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,DATETIME"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F82" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F83" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3424,13 +3458,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1919F07A-6035-401F-8BBC-36EBD6A36826}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5AD870-93C1-443A-8DE7-07FA71111B31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04F9961-9A6A-4D3F-B344-EA5CDD3907F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="675" yWindow="2385" windowWidth="28095" windowHeight="14055" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="TEMPLATE" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$82</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$82</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="173">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -711,6 +711,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ROLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者サイト権限マスタ</t>
+    <rPh sb="6" eb="8">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROOT_ROLE_MT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者サイト権限マスタID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_ROOT_ROLE_MT_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ユーザ権限</t>
     <rPh sb="3" eb="5">
       <t>ケンゲン</t>
@@ -718,40 +741,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ROLE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者サイト権限マスタ</t>
-    <rPh sb="6" eb="8">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ROOT_ROLE_MT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者サイト権限マスタID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEQ_ROOT_ROLE_MT_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ権限</t>
-    <rPh sb="3" eb="5">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザ権限名</t>
     <rPh sb="3" eb="5">
       <t>ケンゲン</t>
@@ -766,10 +755,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>64</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ROLE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -829,6 +814,60 @@
   </si>
   <si>
     <t>TRANSACTION_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_ROOT_USER_ROLE_MT_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROOT_LOGIN_INFO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者サイトユーザ権限管理マスタ</t>
+    <rPh sb="9" eb="11">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROOT_USER_ROLE_MNG_MT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者サイトユーザ権限詳細マスタ</t>
+    <rPh sb="9" eb="11">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROOT_USER_ROLE_DETAIL_MT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者サイトユーザ権限管理マスタID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者サイトユーザ権限詳細マスタID</t>
+    <rPh sb="9" eb="11">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_ROOT_USER_ROLE_DETAIL_MT_ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -836,7 +875,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -870,14 +909,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
@@ -885,8 +916,21 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -935,7 +979,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,10 +1001,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -970,6 +1011,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1289,33 +1336,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A60" sqref="A60:XFD60"/>
+      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="36.5" style="10" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="27.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="36.5" style="9" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
@@ -1331,7 +1378,7 @@
       <c r="E1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>76</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -1354,1959 +1401,2051 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="C2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="9" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="9"/>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="9" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="C11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="C22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9" t="s">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="9" t="s">
+      <c r="I25" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="9" t="s">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="9" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="C29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9" t="s">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9" t="s">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="9" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-    </row>
-    <row r="35" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="9" t="s">
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="9" t="s">
+      <c r="C35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-    </row>
-    <row r="36" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="9" t="s">
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="9" t="s">
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-    </row>
-    <row r="37" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="9" t="s">
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="37" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" s="9" t="s">
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I37" s="9" t="s">
+      <c r="I37" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="9" t="s">
+      <c r="L37" s="8"/>
+    </row>
+    <row r="38" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="9" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="H38" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="9" t="s">
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+    </row>
+    <row r="39" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="9" t="s">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H39" s="9" t="s">
+      <c r="H39" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I39" s="9" t="s">
+      <c r="I39" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-    </row>
-    <row r="40" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="9" t="s">
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="40" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="9" t="s">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="9" t="s">
+      <c r="H40" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I40" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41" s="9" t="s">
+      <c r="C41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H41" s="9" t="s">
+      <c r="H41" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="I41" s="9" t="s">
+      <c r="I41" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" s="9" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A46" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A47" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A48" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+    </row>
+    <row r="52" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+    </row>
+    <row r="56" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="H42" s="9" t="s">
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+    </row>
+    <row r="57" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+    </row>
+    <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+    </row>
+    <row r="60" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="B60" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I60" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="I43" s="9" t="s">
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+    </row>
+    <row r="61" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+    </row>
+    <row r="62" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+    </row>
+    <row r="63" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+    </row>
+    <row r="64" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+    </row>
+    <row r="65" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+    </row>
+    <row r="66" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+    </row>
+    <row r="67" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+    </row>
+    <row r="68" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I68" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+    </row>
+    <row r="69" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I69" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="J43" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="I45" s="9" t="s">
+      <c r="J69" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+    </row>
+    <row r="70" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I70" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="J45" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="I48" s="9" t="s">
+      <c r="J70" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+    </row>
+    <row r="71" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I71" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="I49" s="9" t="s">
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+    </row>
+    <row r="72" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I72" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
-      <c r="L49" s="9"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-    </row>
-    <row r="52" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-    </row>
-    <row r="53" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="L53" s="12"/>
-    </row>
-    <row r="54" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-    </row>
-    <row r="55" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-    </row>
-    <row r="56" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-    </row>
-    <row r="57" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-    </row>
-    <row r="58" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-    </row>
-    <row r="59" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H59" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-    </row>
-    <row r="60" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-    </row>
-    <row r="61" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I61" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-    </row>
-    <row r="62" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J62" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-    </row>
-    <row r="63" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-    </row>
-    <row r="64" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
-      <c r="L65" s="9"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c r="L66" s="9"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
-      <c r="L70" s="9"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
-      <c r="L71" s="9"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L83" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L82" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I83" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I82" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,DECIMAL,DATE,DATETIME"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F83" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F82" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3474,10 +3613,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>66</v>
@@ -3488,10 +3627,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>80</v>
@@ -3502,10 +3641,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>80</v>
@@ -3516,10 +3655,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>80</v>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04F9961-9A6A-4D3F-B344-EA5CDD3907F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60841BBC-BC64-489A-BDAF-EF11F6D10AEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="2385" windowWidth="28095" windowHeight="14055" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -817,10 +817,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SEQ_ROOT_USER_ROLE_MT_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ROOT_LOGIN_INFO</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -868,6 +864,10 @@
   </si>
   <si>
     <t>SEQ_ROOT_USER_ROLE_DETAIL_MT_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_ROOT_USER_ROLE_MNG_MT_ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1342,7 +1342,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomRight" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -2845,7 +2845,7 @@
         <v>134</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -2854,10 +2854,10 @@
         <v>73</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="I56" s="13" t="s">
         <v>69</v>
@@ -2946,10 +2946,10 @@
     </row>
     <row r="60" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>73</v>
@@ -2962,10 +2962,10 @@
         <v>73</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="I60" s="13" t="s">
         <v>69</v>
@@ -2976,10 +2976,10 @@
     </row>
     <row r="61" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -3002,10 +3002,10 @@
     </row>
     <row r="62" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -3028,10 +3028,10 @@
     </row>
     <row r="63" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>73</v>
@@ -3044,10 +3044,10 @@
         <v>73</v>
       </c>
       <c r="G63" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="H63" s="13" t="s">
         <v>171</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>172</v>
       </c>
       <c r="I63" s="13" t="s">
         <v>69</v>
@@ -3058,10 +3058,10 @@
     </row>
     <row r="64" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -3070,10 +3070,10 @@
         <v>73</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="I64" s="13" t="s">
         <v>69</v>
@@ -3084,10 +3084,10 @@
     </row>
     <row r="65" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -3110,10 +3110,10 @@
     </row>
     <row r="66" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -3136,10 +3136,10 @@
     </row>
     <row r="67" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60841BBC-BC64-489A-BDAF-EF11F6D10AEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F0DF0D-7684-4B72-B32A-6357B7702DBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="172">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -443,10 +443,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Not NULL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -531,10 +527,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SEQ_ACCOUNT_RECOVERY_TOKEN_ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -600,10 +592,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>API通信情報</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -868,6 +856,13 @@
   </si>
   <si>
     <t>SEQ_ROOT_USER_ROLE_MNG_MT_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+  </si>
+  <si>
+    <t>BIGINT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1339,10 +1334,10 @@
   <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H64" sqref="H64"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -1379,7 +1374,7 @@
         <v>74</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>6</v>
@@ -1421,10 +1416,10 @@
         <v>3</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>69</v>
+        <v>170</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
@@ -1456,7 +1451,7 @@
         <v>48</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L3" s="8"/>
     </row>
@@ -1485,7 +1480,7 @@
         <v>70</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
@@ -1616,7 +1611,7 @@
         <v>18</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -1642,7 +1637,7 @@
         <v>19</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -1669,10 +1664,10 @@
         <v>22</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1695,10 +1690,10 @@
         <v>3</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -1852,7 +1847,7 @@
         <v>57</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
@@ -1870,13 +1865,13 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
@@ -1902,7 +1897,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -1928,7 +1923,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -1953,10 +1948,10 @@
         <v>3</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -2086,7 +2081,7 @@
         <v>18</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
@@ -2112,7 +2107,7 @@
         <v>19</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -2136,13 +2131,13 @@
         <v>73</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
@@ -2208,7 +2203,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H32" s="8" t="s">
         <v>64</v>
@@ -2242,7 +2237,7 @@
         <v>66</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -2268,7 +2263,7 @@
         <v>68</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
@@ -2276,10 +2271,10 @@
     </row>
     <row r="35" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>73</v>
@@ -2292,13 +2287,13 @@
         <v>73</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
@@ -2306,10 +2301,10 @@
     </row>
     <row r="36" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2321,10 +2316,10 @@
         <v>3</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
@@ -2332,10 +2327,10 @@
     </row>
     <row r="37" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -2344,28 +2339,28 @@
         <v>73</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>70</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L37" s="8"/>
     </row>
     <row r="38" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -2374,13 +2369,13 @@
         <v>73</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
@@ -2388,10 +2383,10 @@
     </row>
     <row r="39" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -2406,7 +2401,7 @@
         <v>66</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
@@ -2414,10 +2409,10 @@
     </row>
     <row r="40" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -2432,7 +2427,7 @@
         <v>68</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
@@ -2440,10 +2435,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>73</v>
@@ -2456,13 +2451,13 @@
         <v>73</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
@@ -2470,10 +2465,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -2482,13 +2477,13 @@
         <v>73</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
@@ -2496,10 +2491,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
@@ -2508,39 +2503,39 @@
         <v>73</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>70</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
@@ -2548,46 +2543,46 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>70</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>70</v>
@@ -2600,36 +2595,36 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>70</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -2638,13 +2633,13 @@
         <v>73</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
@@ -2652,23 +2647,23 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
@@ -2676,10 +2671,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -2694,7 +2689,7 @@
         <v>66</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
@@ -2702,10 +2697,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -2720,7 +2715,7 @@
         <v>68</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
@@ -2728,10 +2723,10 @@
     </row>
     <row r="52" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>73</v>
@@ -2744,13 +2739,13 @@
         <v>73</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>69</v>
+        <v>132</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="11"/>
@@ -2758,10 +2753,10 @@
     </row>
     <row r="53" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2770,28 +2765,28 @@
         <v>73</v>
       </c>
       <c r="G53" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>70</v>
       </c>
       <c r="J53" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K53" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L53" s="11"/>
     </row>
     <row r="54" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
@@ -2800,10 +2795,10 @@
         <v>73</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I54" s="11" t="s">
         <v>70</v>
@@ -2816,10 +2811,10 @@
     </row>
     <row r="55" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2828,10 +2823,10 @@
         <v>73</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>71</v>
@@ -2842,10 +2837,10 @@
     </row>
     <row r="56" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="13"/>
@@ -2854,13 +2849,13 @@
         <v>73</v>
       </c>
       <c r="G56" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H56" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>69</v>
+      <c r="I56" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
@@ -2868,36 +2863,36 @@
     </row>
     <row r="57" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I57" s="11" t="s">
         <v>70</v>
       </c>
       <c r="J57" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K57" s="11"/>
       <c r="L57" s="11"/>
     </row>
     <row r="58" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2912,7 +2907,7 @@
         <v>66</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="11"/>
@@ -2920,10 +2915,10 @@
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
@@ -2938,7 +2933,7 @@
         <v>68</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J59" s="11"/>
       <c r="K59" s="11"/>
@@ -2946,10 +2941,10 @@
     </row>
     <row r="60" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>73</v>
@@ -2962,13 +2957,13 @@
         <v>73</v>
       </c>
       <c r="G60" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H60" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="H60" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>69</v>
+      <c r="I60" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
@@ -2976,10 +2971,10 @@
     </row>
     <row r="61" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -2994,7 +2989,7 @@
         <v>66</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
@@ -3002,10 +2997,10 @@
     </row>
     <row r="62" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -3020,7 +3015,7 @@
         <v>68</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
@@ -3028,10 +3023,10 @@
     </row>
     <row r="63" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>73</v>
@@ -3044,13 +3039,13 @@
         <v>73</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H63" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="I63" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
@@ -3058,10 +3053,10 @@
     </row>
     <row r="64" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -3070,13 +3065,13 @@
         <v>73</v>
       </c>
       <c r="G64" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H64" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="H64" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>69</v>
+      <c r="I64" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
@@ -3084,10 +3079,10 @@
     </row>
     <row r="65" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -3096,13 +3091,13 @@
         <v>73</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>69</v>
+        <v>146</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
@@ -3110,10 +3105,10 @@
     </row>
     <row r="66" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -3128,7 +3123,7 @@
         <v>66</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
@@ -3136,10 +3131,10 @@
     </row>
     <row r="67" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="13" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -3154,7 +3149,7 @@
         <v>68</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
@@ -3162,10 +3157,10 @@
     </row>
     <row r="68" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>73</v>
@@ -3178,13 +3173,13 @@
         <v>73</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>69</v>
+        <v>146</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="11"/>
@@ -3192,10 +3187,10 @@
     </row>
     <row r="69" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -3204,10 +3199,10 @@
         <v>73</v>
       </c>
       <c r="G69" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I69" s="11" t="s">
         <v>70</v>
@@ -3220,10 +3215,10 @@
     </row>
     <row r="70" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -3232,10 +3227,10 @@
         <v>73</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I70" s="11" t="s">
         <v>70</v>
@@ -3248,10 +3243,10 @@
     </row>
     <row r="71" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -3266,7 +3261,7 @@
         <v>66</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
@@ -3274,10 +3269,10 @@
     </row>
     <row r="72" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -3292,7 +3287,7 @@
         <v>68</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
@@ -3443,7 +3438,7 @@
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I82" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
-      <formula1>"VARCHAR,INT,DECIMAL,DATE,DATETIME"</formula1>
+      <formula1>"VARCHAR,INT,BIGINT,DECIMAL,DATE,DATETIME"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F82" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
@@ -3488,104 +3483,104 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3613,10 +3608,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>66</v>
@@ -3627,44 +3622,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F0DF0D-7684-4B72-B32A-6357B7702DBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCA7979-A3F2-49DD-B3F7-B6BF92D6A8C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
@@ -19,9 +19,9 @@
     <sheet name="TEMPLATE" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$90</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="191">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -557,10 +557,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SHA-256でハッシュ化して保存</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SEQ_BMI_RANGE_MT_ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -863,6 +859,99 @@
   </si>
   <si>
     <t>BIGINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者サイトユーザメモ情報</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ROOT_USER_NOTE_INFO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモユーザ情報ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者サイトユーザログイン情報ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_ROOT_LOGIN_INFO_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_ROOT_USER_NOTE_INFO_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>件名</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>メモの件名</t>
+    <rPh sb="3" eb="5">
+      <t>ケンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S3キー</t>
+  </si>
+  <si>
+    <t>S3_KEY</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>ユーザが保存したS3ファイルを識別するキー</t>
+    <rPh sb="4" eb="6">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードを一意に識別するID</t>
+    <rPh sb="0" eb="2">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シキベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザがログインするためのID</t>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードの更新日時</t>
+  </si>
+  <si>
+    <t>当該レコードの更新日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当該レコードの登録日時</t>
+  </si>
+  <si>
+    <t>当該レコードの登録日時</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -870,7 +959,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,28 +985,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
@@ -926,6 +993,19 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -974,7 +1054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,29 +1073,23 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1331,2116 +1405,2356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="36.5" style="9" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="27.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="36.5" style="8" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A33" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A34" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A39" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A40" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A42" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A47" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A48" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A50" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L50" s="7"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L51" s="7"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A52" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A53" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A54" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J54" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A55" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A56" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A57" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A58" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L58" s="7"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A59" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L59" s="7"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A60" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A61" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L61" s="7"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A62" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L62" s="7"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A63" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A64" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A65" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L66" s="7"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A67" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L67" s="7"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A68" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A69" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J69" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A70" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J70" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A71" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L71" s="7"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A72" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L72" s="7"/>
+    </row>
+    <row r="73" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="L73" s="9"/>
+    </row>
+    <row r="74" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="I75" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="J75" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="I76" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="J76" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="L76" s="9"/>
+    </row>
+    <row r="77" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I77" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="8" t="s">
+      <c r="J77" s="9"/>
+      <c r="K77" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="L77" s="9"/>
+    </row>
+    <row r="78" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I78" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-    </row>
-    <row r="37" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K37" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L37" s="8"/>
-    </row>
-    <row r="38" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="40" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J45" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J46" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
-      <c r="L49" s="8"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-    </row>
-    <row r="52" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-    </row>
-    <row r="53" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J53" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L53" s="11"/>
-    </row>
-    <row r="54" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H54" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-    </row>
-    <row r="55" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="H55" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-    </row>
-    <row r="56" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="H56" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-    </row>
-    <row r="57" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="H57" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-    </row>
-    <row r="58" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-    </row>
-    <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-    </row>
-    <row r="60" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="H60" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="13"/>
-    </row>
-    <row r="61" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H61" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-    </row>
-    <row r="62" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H62" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-    </row>
-    <row r="63" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="H63" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="13"/>
-    </row>
-    <row r="64" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="H64" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-    </row>
-    <row r="65" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="H65" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-    </row>
-    <row r="66" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G66" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H66" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-    </row>
-    <row r="67" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="I67" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-    </row>
-    <row r="68" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C68" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="E68" s="11"/>
-      <c r="F68" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="H68" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-    </row>
-    <row r="69" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G69" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J69" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
-    </row>
-    <row r="70" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G70" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="J70" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
-    </row>
-    <row r="71" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
-    </row>
-    <row r="72" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G72" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="8"/>
-      <c r="L74" s="8"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="8"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="8"/>
-      <c r="L77" s="8"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-      <c r="L78" s="8"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+    </row>
+    <row r="80" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+    </row>
+    <row r="81" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+    </row>
+    <row r="84" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+    </row>
+    <row r="85" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+    </row>
+    <row r="86" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+    </row>
+    <row r="87" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+    </row>
+    <row r="88" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L82" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L90" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I82" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I90" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,BIGINT,DECIMAL,DATE,DATETIME"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F82" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F90" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3608,10 +3922,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>66</v>
@@ -3622,10 +3936,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>79</v>
@@ -3636,10 +3950,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>79</v>
@@ -3650,10 +3964,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>79</v>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCA7979-A3F2-49DD-B3F7-B6BF92D6A8C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7770ED9-AED3-49A7-A6B8-00E06A1550F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-21240" yWindow="2925" windowWidth="20025" windowHeight="14070" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="TEMPLATE" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$89</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="195">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -952,6 +952,28 @@
   </si>
   <si>
     <t>当該レコードの登録日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ情報</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NEWS_INFO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ情報ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_NEWS_INFO_ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1405,13 +1427,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -3403,236 +3425,298 @@
       </c>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="9" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A73" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C73" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G73" s="9" t="s">
+      <c r="C73" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="H73" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="I73" s="9" t="s">
+      <c r="I73" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9" t="s">
+      <c r="J73" s="7"/>
+      <c r="K73" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="L73" s="9"/>
-    </row>
-    <row r="74" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="9" t="s">
+      <c r="L73" s="7"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A74" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G74" s="9" t="s">
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="H74" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I74" s="9" t="s">
+      <c r="I74" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9" t="s">
+      <c r="J74" s="7"/>
+      <c r="K74" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="L74" s="9"/>
-    </row>
-    <row r="75" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="9" t="s">
+      <c r="L74" s="7"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A75" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G75" s="9" t="s">
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="H75" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="I75" s="9" t="s">
+      <c r="I75" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J75" s="9" t="s">
+      <c r="J75" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="K75" s="9" t="s">
+      <c r="K75" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="L75" s="9"/>
-    </row>
-    <row r="76" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="9" t="s">
+      <c r="L75" s="7"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A76" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G76" s="9" t="s">
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="H76" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="I76" s="9" t="s">
+      <c r="I76" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J76" s="9" t="s">
+      <c r="J76" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K76" s="9" t="s">
+      <c r="K76" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L76" s="9"/>
-    </row>
-    <row r="77" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="9" t="s">
+      <c r="L76" s="7"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A77" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G77" s="9" t="s">
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="9" t="s">
+      <c r="H77" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I77" s="9" t="s">
+      <c r="I77" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9" t="s">
+      <c r="J77" s="7"/>
+      <c r="K77" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="L77" s="9"/>
-    </row>
-    <row r="78" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="9" t="s">
+      <c r="L77" s="7"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A78" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G78" s="9" t="s">
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="H78" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I78" s="9" t="s">
+      <c r="I78" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9" t="s">
+      <c r="J78" s="7"/>
+      <c r="K78" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="L78" s="9"/>
+      <c r="L78" s="7"/>
     </row>
     <row r="79" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="A79" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
+      <c r="F79" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>169</v>
+      </c>
       <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
+      <c r="K79" s="9" t="s">
+        <v>184</v>
+      </c>
       <c r="L79" s="9"/>
     </row>
     <row r="80" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
+      <c r="A80" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>192</v>
+      </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
+      <c r="F80" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J80" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="K80" s="9" t="s">
+        <v>183</v>
+      </c>
       <c r="L80" s="9"/>
     </row>
     <row r="81" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
+      <c r="A81" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>192</v>
+      </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
+      <c r="F81" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
+      <c r="K81" s="9" t="s">
+        <v>188</v>
+      </c>
       <c r="L81" s="9"/>
     </row>
     <row r="82" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
+      <c r="A82" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>192</v>
+      </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
+      <c r="F82" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>93</v>
+      </c>
       <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
+      <c r="K82" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="L82" s="9"/>
     </row>
     <row r="83" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -3705,19 +3789,19 @@
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
     </row>
-    <row r="88" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" s="7"/>
@@ -3733,28 +3817,14 @@
       <c r="K89" s="7"/>
       <c r="L89" s="7"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L90" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L89" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I90" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I89" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,BIGINT,DECIMAL,DATE,DATETIME"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F90" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F89" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7770ED9-AED3-49A7-A6B8-00E06A1550F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E5D7FE-18E7-48EC-BE1D-46075F5DC46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21240" yWindow="2925" windowWidth="20025" windowHeight="14070" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -1430,10 +1430,10 @@
   <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -3601,123 +3601,123 @@
       </c>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="9" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A79" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C79" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G79" s="9" t="s">
+      <c r="C79" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="H79" s="9" t="s">
+      <c r="H79" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="I79" s="9" t="s">
+      <c r="I79" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9" t="s">
+      <c r="J79" s="7"/>
+      <c r="K79" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="L79" s="9"/>
-    </row>
-    <row r="80" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="9" t="s">
+      <c r="L79" s="7"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A80" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G80" s="9" t="s">
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="H80" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="I80" s="9" t="s">
+      <c r="I80" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J80" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K80" s="9" t="s">
+      <c r="K80" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="L80" s="9"/>
-    </row>
-    <row r="81" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="9" t="s">
+      <c r="L80" s="7"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A81" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G81" s="9" t="s">
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H81" s="9" t="s">
+      <c r="H81" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I81" s="9" t="s">
+      <c r="I81" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9" t="s">
+      <c r="J81" s="7"/>
+      <c r="K81" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="L81" s="9"/>
-    </row>
-    <row r="82" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="9" t="s">
+      <c r="L81" s="7"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A82" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G82" s="9" t="s">
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H82" s="9" t="s">
+      <c r="H82" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I82" s="9" t="s">
+      <c r="I82" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9" t="s">
+      <c r="J82" s="7"/>
+      <c r="K82" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="L82" s="9"/>
+      <c r="L82" s="7"/>
     </row>
     <row r="83" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="9"/>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E5D7FE-18E7-48EC-BE1D-46075F5DC46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9B4D42-F610-497D-ABCC-8ED9756619CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -981,7 +981,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,15 +994,6 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1028,6 +1019,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1080,37 +1086,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1430,2392 +1436,2392 @@
   <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B75" sqref="B75"/>
+      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="43.375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="36.5" style="8" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="27.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="36.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="11" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L9" s="7"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7" t="s">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L10" s="7"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="C11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7" t="s">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7" t="s">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7" t="s">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="C22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="I23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7" t="s">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7" t="s">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7" t="s">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7" t="s">
+      <c r="J27" s="2"/>
+      <c r="K27" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7" t="s">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L28" s="7"/>
+      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="C29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7" t="s">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I31" s="7" t="s">
+      <c r="I31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7" t="s">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="I33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7" t="s">
+      <c r="J33" s="2"/>
+      <c r="K33" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L33" s="7"/>
+      <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7" t="s">
+      <c r="J34" s="2"/>
+      <c r="K34" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="C35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I35" s="7" t="s">
+      <c r="I35" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H37" s="7" t="s">
+      <c r="H37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="J37" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" s="7" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" s="7" t="s">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H39" s="7" t="s">
+      <c r="H39" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I39" s="7" t="s">
+      <c r="I39" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7" t="s">
+      <c r="J39" s="2"/>
+      <c r="K39" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L39" s="7"/>
+      <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7" t="s">
+      <c r="J40" s="2"/>
+      <c r="K40" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L40" s="7"/>
+      <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="C41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H41" s="7" t="s">
+      <c r="H41" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I41" s="7" t="s">
+      <c r="I41" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G42" s="7" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" s="7" t="s">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H43" s="7" t="s">
+      <c r="H43" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="I43" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7" t="s">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7" t="s">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="J45" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7" t="s">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J46" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
+      <c r="J46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7" t="s">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" s="7" t="s">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7" t="s">
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I49" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" s="7" t="s">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7" t="s">
+      <c r="J50" s="2"/>
+      <c r="K50" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L50" s="7"/>
+      <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" s="7" t="s">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7" t="s">
+      <c r="J51" s="2"/>
+      <c r="K51" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L51" s="7"/>
+      <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C52" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" s="7" t="s">
+      <c r="C52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G53" s="7" t="s">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" s="7" t="s">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J54" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
+      <c r="J54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" s="7" t="s">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" s="7" t="s">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I56" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7" t="s">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I57" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="J57" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I58" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7" t="s">
+      <c r="J58" s="2"/>
+      <c r="K58" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L58" s="7"/>
+      <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I59" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7" t="s">
+      <c r="J59" s="2"/>
+      <c r="K59" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L59" s="7"/>
+      <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G60" s="7" t="s">
+      <c r="C60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I60" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" s="7" t="s">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="I61" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7" t="s">
+      <c r="J61" s="2"/>
+      <c r="K61" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L61" s="7"/>
+      <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" s="7" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I62" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7" t="s">
+      <c r="J62" s="2"/>
+      <c r="K62" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L62" s="7"/>
+      <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="C63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I63" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" s="7" t="s">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I64" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" s="7" t="s">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H65" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I65" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G66" s="7" t="s">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7" t="s">
+      <c r="J66" s="2"/>
+      <c r="K66" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L66" s="7"/>
+      <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G67" s="7" t="s">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H67" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I67" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7" t="s">
+      <c r="J67" s="2"/>
+      <c r="K67" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L67" s="7"/>
+      <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" s="7" t="s">
+      <c r="C68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H68" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I68" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G69" s="7" t="s">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I69" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="J69" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G70" s="7" t="s">
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J70" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G71" s="7" t="s">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H71" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I71" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7" t="s">
+      <c r="J71" s="2"/>
+      <c r="K71" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="L71" s="7"/>
+      <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G72" s="7" t="s">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I72" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7" t="s">
+      <c r="J72" s="2"/>
+      <c r="K72" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L72" s="7"/>
+      <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G73" s="7" t="s">
+      <c r="C73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I73" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7" t="s">
+      <c r="J73" s="2"/>
+      <c r="K73" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L73" s="7"/>
+      <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G74" s="7" t="s">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="I74" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7" t="s">
+      <c r="J74" s="2"/>
+      <c r="K74" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L74" s="7"/>
+      <c r="L74" s="2"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G75" s="7" t="s">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G75" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="I75" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K75" s="7" t="s">
+      <c r="K75" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L75" s="7"/>
+      <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G76" s="7" t="s">
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I76" s="7" t="s">
+      <c r="I76" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J76" s="7" t="s">
+      <c r="J76" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K76" s="7" t="s">
+      <c r="K76" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="L76" s="7"/>
+      <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G77" s="7" t="s">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I77" s="7" t="s">
+      <c r="I77" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7" t="s">
+      <c r="J77" s="2"/>
+      <c r="K77" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="L77" s="7"/>
+      <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G78" s="7" t="s">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="I78" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7" t="s">
+      <c r="J78" s="2"/>
+      <c r="K78" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="L78" s="7"/>
+      <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G79" s="7" t="s">
+      <c r="C79" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H79" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I79" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7" t="s">
+      <c r="J79" s="2"/>
+      <c r="K79" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L79" s="7"/>
+      <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G80" s="7" t="s">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I80" s="7" t="s">
+      <c r="I80" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J80" s="7" t="s">
+      <c r="J80" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K80" s="7" t="s">
+      <c r="K80" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="L80" s="7"/>
+      <c r="L80" s="2"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G81" s="7" t="s">
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H81" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I81" s="7" t="s">
+      <c r="I81" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7" t="s">
+      <c r="J81" s="2"/>
+      <c r="K81" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="L81" s="7"/>
+      <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G82" s="7" t="s">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I82" s="7" t="s">
+      <c r="I82" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7" t="s">
+      <c r="J82" s="2"/>
+      <c r="K82" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="L82" s="7"/>
-    </row>
-    <row r="83" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-    </row>
-    <row r="84" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-    </row>
-    <row r="85" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-    </row>
-    <row r="86" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-    </row>
-    <row r="87" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+    </row>
+    <row r="84" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+    </row>
+    <row r="85" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+    </row>
+    <row r="86" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+    </row>
+    <row r="87" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L89" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
@@ -3837,133 +3843,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D7121B-1215-48D4-A4D3-45D65E41B069}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="24.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="3.375" style="1"/>
+    <col min="1" max="1" width="14.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="3.375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="9" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3979,70 +3988,71 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="3.375" style="1"/>
+    <col min="1" max="1" width="7" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="22.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="3.375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4058,945 +4068,945 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D56" sqref="D56"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="27.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="27.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
+      <c r="A59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
+      <c r="A68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K69" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9B4D42-F610-497D-ABCC-8ED9756619CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6BA927-00AC-4B7C-AC22-EF2F5FEEE292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="TEMPLATE" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$91</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="200">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -974,6 +974,26 @@
   </si>
   <si>
     <t>SEQ_NEWS_INFO_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BODY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストBody</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1024</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1039,7 +1059,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1049,6 +1069,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,7 +1108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,6 +1144,12 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1433,13 +1465,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
+      <selection pane="bottomRight" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -1448,8 +1480,8 @@
     <col min="2" max="2" width="38.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="43.375" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="3" bestFit="1" customWidth="1"/>
@@ -2637,81 +2669,85 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2" t="s">
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H46" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I46" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
@@ -2725,45 +2761,45 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>70</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
@@ -2777,15 +2813,17 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J49" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
@@ -2803,18 +2841,16 @@
         <v>73</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>93</v>
       </c>
       <c r="J50" s="2"/>
-      <c r="K50" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="K50" s="2"/>
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
@@ -2827,60 +2863,54 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>93</v>
       </c>
       <c r="J51" s="2"/>
-      <c r="K51" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="K52" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2889,18 +2919,18 @@
         <v>73</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K53" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
@@ -2908,26 +2938,28 @@
         <v>130</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
@@ -2945,15 +2977,17 @@
         <v>73</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J55" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
@@ -2962,7 +2996,7 @@
         <v>130</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2971,15 +3005,17 @@
         <v>73</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J56" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
@@ -2993,19 +3029,19 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="G57" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
     </row>
@@ -3014,7 +3050,7 @@
         <v>130</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3023,18 +3059,16 @@
         <v>73</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="J58" s="2"/>
-      <c r="K58" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
@@ -3047,60 +3081,56 @@
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2" t="s">
-        <v>189</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
+      <c r="K60" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -3109,17 +3139,17 @@
         <v>73</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>93</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L61" s="2"/>
     </row>
@@ -3130,63 +3160,63 @@
       <c r="B62" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="J62" s="2"/>
-      <c r="K62" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>166</v>
+        <v>65</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
+      <c r="K63" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3195,16 +3225,18 @@
         <v>73</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
+      <c r="K64" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
@@ -3214,17 +3246,21 @@
       <c r="B65" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>170</v>
@@ -3247,18 +3283,16 @@
         <v>73</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="J66" s="2"/>
-      <c r="K66" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
@@ -3275,56 +3309,52 @@
         <v>73</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>68</v>
+        <v>145</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>93</v>
+        <v>170</v>
       </c>
       <c r="J67" s="2"/>
-      <c r="K67" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>170</v>
+        <v>93</v>
       </c>
       <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
+      <c r="K68" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -3333,18 +3363,18 @@
         <v>73</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K69" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
@@ -3354,24 +3384,26 @@
       <c r="B70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
@@ -3389,18 +3421,18 @@
         <v>73</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2" t="s">
-        <v>187</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
@@ -3417,58 +3449,54 @@
         <v>73</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2" t="s">
-        <v>189</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3477,17 +3505,17 @@
         <v>73</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L74" s="2"/>
     </row>
@@ -3498,26 +3526,28 @@
       <c r="B75" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>186</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="J75" s="2"/>
       <c r="K75" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L75" s="2"/>
     </row>
@@ -3535,19 +3565,17 @@
         <v>73</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="J76" s="2"/>
       <c r="K76" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L76" s="2"/>
     </row>
@@ -3565,17 +3593,19 @@
         <v>73</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J77" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="K77" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="L77" s="2"/>
     </row>
@@ -3593,58 +3623,56 @@
         <v>73</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>67</v>
+        <v>180</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J78" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="K78" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>73</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>193</v>
+        <v>65</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>194</v>
+        <v>66</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3653,19 +3681,17 @@
         <v>73</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>180</v>
+        <v>67</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="J80" s="2"/>
       <c r="K80" s="2" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="L80" s="2"/>
     </row>
@@ -3676,24 +3702,28 @@
       <c r="B81" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
         <v>73</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L81" s="2"/>
     </row>
@@ -3711,47 +3741,77 @@
         <v>73</v>
       </c>
       <c r="G82" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A83" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A84" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2" t="s">
+      <c r="J84" s="2"/>
+      <c r="K84" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-    </row>
-    <row r="84" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
+      <c r="L84" s="2"/>
     </row>
     <row r="85" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
@@ -3795,42 +3855,70 @@
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
+    <row r="88" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+    </row>
+    <row r="89" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L89" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L91" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I89" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I91" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,BIGINT,DECIMAL,DATE,DATETIME"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F89" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F91" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6BA927-00AC-4B7C-AC22-EF2F5FEEE292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332DD608-BB0C-4459-BA39-EE02548E8AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="60" yWindow="360" windowWidth="27045" windowHeight="14625" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="201">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -302,10 +302,6 @@
     <t>6, 3</t>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>256</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -994,6 +990,13 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>ROOT_LOGIN_INFO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1468,10 +1471,10 @@
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L46" sqref="L46"/>
+      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -1493,10 +1496,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -1505,10 +1508,10 @@
         <v>23</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>6</v>
@@ -1526,7 +1529,7 @@
         <v>4</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
@@ -1537,23 +1540,23 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1570,7 +1573,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>7</v>
@@ -1579,13 +1582,13 @@
         <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -1599,10 +1602,10 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>41</v>
@@ -1611,10 +1614,10 @@
         <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1630,7 +1633,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>9</v>
@@ -1638,12 +1641,10 @@
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="I5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
@@ -1658,7 +1659,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>10</v>
@@ -1667,7 +1668,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -1691,10 +1692,10 @@
         <v>16</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1717,10 +1718,10 @@
         <v>17</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1736,7 +1737,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>12</v>
@@ -1745,11 +1746,11 @@
         <v>18</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L9" s="2"/>
     </row>
@@ -1764,7 +1765,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>13</v>
@@ -1773,11 +1774,11 @@
         <v>19</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L10" s="2"/>
     </row>
@@ -1789,23 +1790,23 @@
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1822,16 +1823,16 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1855,10 +1856,10 @@
         <v>24</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1881,7 +1882,7 @@
         <v>25</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>45</v>
@@ -1907,7 +1908,7 @@
         <v>26</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>45</v>
@@ -1933,7 +1934,7 @@
         <v>27</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>45</v>
@@ -1953,16 +1954,16 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="I17" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1979,13 +1980,13 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -2003,13 +2004,13 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -2026,7 +2027,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>12</v>
@@ -2035,11 +2036,11 @@
         <v>18</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L20" s="2"/>
     </row>
@@ -2054,7 +2055,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>13</v>
@@ -2063,11 +2064,11 @@
         <v>19</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L21" s="2"/>
     </row>
@@ -2079,21 +2080,21 @@
         <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2116,12 +2117,10 @@
       <c r="H23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="I23" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
@@ -2142,12 +2141,10 @@
       <c r="H24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="I24" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
@@ -2168,12 +2165,10 @@
       <c r="H25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="I25" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
@@ -2194,12 +2189,10 @@
       <c r="H26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="I26" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
@@ -2214,7 +2207,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>12</v>
@@ -2223,11 +2216,11 @@
         <v>18</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L27" s="2"/>
     </row>
@@ -2242,7 +2235,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>13</v>
@@ -2251,39 +2244,39 @@
         <v>19</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -2291,23 +2284,23 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="I30" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
@@ -2315,23 +2308,23 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="I31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
@@ -2339,111 +2332,111 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="I33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L33" s="2"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="I34" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L34" s="2"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -2451,25 +2444,25 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -2477,53 +2470,53 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -2531,85 +2524,85 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="I39" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="I40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C41" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -2617,25 +2610,25 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="I42" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -2643,107 +2636,107 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="I43" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="H46" s="12" t="s">
-        <v>114</v>
-      </c>
       <c r="I46" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J46" s="12"/>
       <c r="K46" s="12"/>
@@ -2751,103 +2744,103 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="I47" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H48" s="12" t="s">
-        <v>118</v>
-      </c>
       <c r="I48" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="I49" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="I50" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -2855,23 +2848,23 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="I51" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -2879,85 +2872,85 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H52" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="I52" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="I53" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -2965,81 +2958,79 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H55" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="I55" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H56" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="I56" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G57" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="I57" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -3047,25 +3038,25 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -3073,111 +3064,111 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="I59" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="I60" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="I61" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
@@ -3185,85 +3176,85 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="I63" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="I64" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="I65" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -3271,25 +3262,25 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -3297,25 +3288,25 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H67" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="I67" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
@@ -3323,85 +3314,85 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="I68" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G69" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H69" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="I69" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="C70" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H70" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="I70" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
@@ -3409,407 +3400,407 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G72" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="H72" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="I72" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H73" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="I73" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G74" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H74" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="I74" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L74" s="2"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G77" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="I77" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="K77" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G78" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H78" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="I78" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J78" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I78" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J78" s="2" t="s">
+      <c r="K78" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H79" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="I79" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G80" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H80" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="I80" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L80" s="2"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G81" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H81" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="I81" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J81" s="2"/>
       <c r="K81" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G82" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="I82" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J82" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I82" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J82" s="2" t="s">
+      <c r="K82" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="I83" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J83" s="2"/>
       <c r="K83" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G84" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H84" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H84" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="I84" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J84" s="2"/>
       <c r="K84" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L84" s="2"/>
     </row>
@@ -3916,7 +3907,7 @@
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I91" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
-      <formula1>"VARCHAR,INT,BIGINT,DECIMAL,DATE,DATETIME"</formula1>
+      <formula1>"VARCHAR,INT,BIGINT,DECIMAL,DATE,DATETIME,BOOLEAN"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F91" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
@@ -3947,121 +3938,121 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="C5" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>91</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="C7" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4090,58 +4081,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="C1" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4179,10 +4170,10 @@
   <sheetData>
     <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
@@ -4191,7 +4182,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>6</v>
@@ -4209,7 +4200,7 @@
         <v>4</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332DD608-BB0C-4459-BA39-EE02548E8AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D62BF-EF22-43D2-8DD5-AE3051FF39DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="360" windowWidth="27045" windowHeight="14625" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-1260" yWindow="360" windowWidth="26850" windowHeight="14625" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="TEMPLATE" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$90</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="201">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -601,22 +601,10 @@
     <t>API_NAME</t>
   </si>
   <si>
-    <t>ユーザID</t>
-  </si>
-  <si>
-    <t>SEQ_USER_ID</t>
-  </si>
-  <si>
     <t>HTTPステータス</t>
   </si>
   <si>
     <t>HTTP_STATUS</t>
-  </si>
-  <si>
-    <t>処理結果</t>
-  </si>
-  <si>
-    <t>RESULT</t>
   </si>
   <si>
     <t>エラー詳細</t>
@@ -997,6 +985,22 @@
   </si>
   <si>
     <t>ROOT_LOGIN_INFO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTPメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTP_METHOD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>256</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1062,7 +1066,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1072,12 +1076,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1111,7 +1109,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1147,12 +1145,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1468,13 +1460,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomRight" activeCell="F44" sqref="F44:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -1556,7 +1548,7 @@
         <v>93</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1641,8 +1633,8 @@
       <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>199</v>
+      <c r="I5" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -1750,7 +1742,7 @@
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L9" s="2"/>
     </row>
@@ -1778,7 +1770,7 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L10" s="2"/>
     </row>
@@ -1806,7 +1798,7 @@
         <v>75</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -1832,7 +1824,7 @@
         <v>93</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2010,7 +2002,7 @@
         <v>100</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -2040,7 +2032,7 @@
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L20" s="2"/>
     </row>
@@ -2068,7 +2060,7 @@
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L21" s="2"/>
     </row>
@@ -2094,7 +2086,7 @@
         <v>93</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2117,8 +2109,8 @@
       <c r="H23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="4" t="s">
-        <v>199</v>
+      <c r="I23" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -2141,8 +2133,8 @@
       <c r="H24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>199</v>
+      <c r="I24" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -2165,8 +2157,8 @@
       <c r="H25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>199</v>
+      <c r="I25" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2189,8 +2181,8 @@
       <c r="H26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>199</v>
+      <c r="I26" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -2220,7 +2212,7 @@
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L27" s="2"/>
     </row>
@@ -2248,7 +2240,7 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L28" s="2"/>
     </row>
@@ -2276,7 +2268,7 @@
         <v>100</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
@@ -2380,7 +2372,7 @@
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L33" s="2"/>
     </row>
@@ -2408,7 +2400,7 @@
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L34" s="2"/>
     </row>
@@ -2436,7 +2428,7 @@
         <v>94</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -2462,7 +2454,7 @@
         <v>93</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -2546,7 +2538,7 @@
       </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L39" s="2"/>
     </row>
@@ -2574,7 +2566,7 @@
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L40" s="2"/>
     </row>
@@ -2599,10 +2591,10 @@
         <v>109</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -2622,13 +2614,13 @@
         <v>72</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -2657,7 +2649,7 @@
         <v>69</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -2672,22 +2664,22 @@
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="2"/>
       <c r="G44" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>126</v>
+        <v>199</v>
       </c>
       <c r="K44" s="4"/>
       <c r="L44" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -2700,47 +2692,51 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="F45" s="2"/>
       <c r="G45" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>69</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K45" s="4"/>
       <c r="L45" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
@@ -2754,45 +2750,45 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>69</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
     </row>
-    <row r="48" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="I48" s="12" t="s">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J48" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
+      <c r="J48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
@@ -2804,19 +2800,19 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G49" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>126</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
@@ -2830,14 +2826,12 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>92</v>
@@ -2856,18 +2850,22 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G51" s="2" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>92</v>
       </c>
       <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
+      <c r="K51" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
@@ -2894,74 +2892,74 @@
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="J53" s="2"/>
-      <c r="K53" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J54" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2970,26 +2968,24 @@
         <v>72</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>124</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2998,13 +2994,13 @@
         <v>72</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>199</v>
+        <v>132</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -3012,10 +3008,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3024,13 +3020,13 @@
         <v>72</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -3038,62 +3034,64 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="F58" s="2"/>
       <c r="G58" s="2" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J58" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G59" s="2" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="K59" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -3102,84 +3100,84 @@
         <v>72</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>92</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>67</v>
+        <v>163</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="J61" s="2"/>
-      <c r="K61" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="K61" s="2"/>
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>167</v>
+        <v>65</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
+      <c r="K62" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="L62" s="2"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3188,73 +3186,71 @@
         <v>72</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>92</v>
       </c>
       <c r="J63" s="2"/>
       <c r="K63" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L63" s="2"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="J64" s="2"/>
-      <c r="K64" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="K64" s="2"/>
       <c r="L64" s="2"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -3262,10 +3258,10 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3274,13 +3270,13 @@
         <v>72</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -3288,10 +3284,10 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3300,24 +3296,26 @@
         <v>72</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
+      <c r="K67" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -3326,84 +3324,84 @@
         <v>72</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>92</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="J69" s="2"/>
-      <c r="K69" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J70" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3412,26 +3410,26 @@
         <v>72</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>69</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3440,26 +3438,26 @@
         <v>72</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K72" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3468,86 +3466,86 @@
         <v>72</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>92</v>
       </c>
       <c r="J73" s="2"/>
       <c r="K73" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="L74" s="2"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J75" s="2"/>
       <c r="K75" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3556,26 +3554,28 @@
         <v>72</v>
       </c>
       <c r="G76" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H76" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="I76" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J76" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="K76" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3584,16 +3584,16 @@
         <v>72</v>
       </c>
       <c r="G77" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H77" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>69</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="K77" s="2" t="s">
         <v>178</v>
@@ -3602,10 +3602,10 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3614,28 +3614,26 @@
         <v>72</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="J78" s="2"/>
       <c r="K78" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3644,86 +3642,88 @@
         <v>72</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>92</v>
       </c>
       <c r="J79" s="2"/>
       <c r="K79" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="J80" s="2"/>
       <c r="K80" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="L80" s="2"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="J81" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="K81" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3732,28 +3732,26 @@
         <v>72</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="J82" s="2"/>
       <c r="K82" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L82" s="2"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3762,47 +3760,33 @@
         <v>72</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>92</v>
       </c>
       <c r="J83" s="2"/>
       <c r="K83" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L83" s="2"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A84" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="L84" s="2"/>
+    <row r="84" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
     </row>
     <row r="85" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
@@ -3860,19 +3844,19 @@
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" s="2"/>
@@ -3888,28 +3872,14 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L91" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L90" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I91" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I90" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,BIGINT,DECIMAL,DATE,DATETIME,BOOLEAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F91" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F90" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4081,10 +4051,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>65</v>
@@ -4095,10 +4065,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>78</v>
@@ -4109,10 +4079,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>78</v>
@@ -4123,10 +4093,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>78</v>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780D62BF-EF22-43D2-8DD5-AE3051FF39DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75736C78-D118-43AE-BE80-6CB6E7B7D143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1260" yWindow="360" windowWidth="26850" windowHeight="14625" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="TEMPLATE" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$156</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$156</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="206">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -1001,6 +1001,35 @@
   </si>
   <si>
     <t>256</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_RECOVERY_TOKEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ回復トークン情報</t>
+    <rPh sb="3" eb="5">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_USER_RECOVERY_TOKEN_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1066,7 +1095,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1076,6 +1105,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,7 +1144,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1145,6 +1180,12 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1460,13 +1501,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F44" sqref="F44:F45"/>
+      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -1524,255 +1565,255 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="12"/>
+      <c r="K10" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
@@ -2404,171 +2445,171 @@
       </c>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="C35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" s="2" t="s">
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="2" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" s="2" t="s">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I38" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="2" t="s">
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2" t="s">
+      <c r="J39" s="12"/>
+      <c r="K39" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
+      <c r="L39" s="12"/>
+    </row>
+    <row r="40" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="12"/>
+      <c r="K40" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="L40" s="2"/>
+      <c r="L40" s="12"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
@@ -2654,87 +2695,87 @@
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
     </row>
-    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="J44" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4" t="s">
+      <c r="K44" s="2"/>
+      <c r="L44" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="4" t="s">
+      <c r="G45" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="J45" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4" t="s">
+      <c r="K45" s="2"/>
+      <c r="L45" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4" t="s">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J46" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4" t="s">
+      <c r="K46" s="2"/>
+      <c r="L46" s="2" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3775,111 +3816,1241 @@
       <c r="L83" s="2"/>
     </row>
     <row r="84" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
+      <c r="A84" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
+      <c r="F84" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
     </row>
     <row r="85" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
+      <c r="A85" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
+      <c r="F85" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="L85" s="4"/>
     </row>
     <row r="86" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
+      <c r="A86" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
+      <c r="E86" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
     </row>
     <row r="87" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
+      <c r="A87" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
+      <c r="F87" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
     </row>
     <row r="88" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
+      <c r="A88" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
+      <c r="F88" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
+    <row r="89" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+    </row>
+    <row r="90" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+    </row>
+    <row r="91" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L91" s="4"/>
+    </row>
+    <row r="92" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L92" s="4"/>
+    </row>
+    <row r="93" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+    </row>
+    <row r="94" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+    </row>
+    <row r="95" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+    </row>
+    <row r="96" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+    </row>
+    <row r="97" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L97" s="4"/>
+    </row>
+    <row r="98" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="L98" s="4"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+    </row>
+    <row r="117" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+    </row>
+    <row r="118" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+    </row>
+    <row r="119" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+    </row>
+    <row r="120" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+    </row>
+    <row r="121" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+    </row>
+    <row r="122" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+    </row>
+    <row r="123" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+    </row>
+    <row r="124" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+    </row>
+    <row r="125" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+    </row>
+    <row r="126" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+    </row>
+    <row r="127" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+    </row>
+    <row r="128" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+    </row>
+    <row r="129" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+    </row>
+    <row r="130" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+    </row>
+    <row r="131" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+    </row>
+    <row r="132" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+    </row>
+    <row r="133" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+    </row>
+    <row r="134" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+    </row>
+    <row r="135" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+    </row>
+    <row r="136" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+    </row>
+    <row r="137" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="4"/>
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="4"/>
+      <c r="K137" s="4"/>
+      <c r="L137" s="4"/>
+    </row>
+    <row r="138" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="4"/>
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="4"/>
+      <c r="K138" s="4"/>
+      <c r="L138" s="4"/>
+    </row>
+    <row r="139" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="4"/>
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+    </row>
+    <row r="140" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="4"/>
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
+      <c r="K140" s="4"/>
+      <c r="L140" s="4"/>
+    </row>
+    <row r="141" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+    </row>
+    <row r="142" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="4"/>
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+    </row>
+    <row r="143" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="4"/>
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+    </row>
+    <row r="144" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="4"/>
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+    </row>
+    <row r="145" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="4"/>
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
+      <c r="I145" s="4"/>
+      <c r="J145" s="4"/>
+      <c r="K145" s="4"/>
+      <c r="L145" s="4"/>
+    </row>
+    <row r="146" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="4"/>
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+    </row>
+    <row r="147" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+    </row>
+    <row r="148" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="4"/>
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+    </row>
+    <row r="149" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="4"/>
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+    </row>
+    <row r="150" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="4"/>
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+    </row>
+    <row r="151" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="4"/>
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+    </row>
+    <row r="152" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+    </row>
+    <row r="153" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A153" s="4"/>
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
+      <c r="I153" s="4"/>
+      <c r="J153" s="4"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+    </row>
+    <row r="154" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="4"/>
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A155" s="2"/>
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L90" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:L156" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I90" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I156" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,BIGINT,DECIMAL,DATE,DATETIME,BOOLEAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F90" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F156" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3894,7 +5065,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -4038,7 +5209,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -4120,7 +5291,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75736C78-D118-43AE-BE80-6CB6E7B7D143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913A3A80-EC36-4646-96C9-8170FDF4B391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="1005" yWindow="600" windowWidth="24675" windowHeight="14625" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="TEMPLATE" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$L$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$M$149</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$L$156</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$M$149</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,20 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="209">
   <si>
     <t>PRIMARY_KEY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ACCOUNT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント情報</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -523,10 +512,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SEQ_ACCOUNT_RECOVERY_TOKEN_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TOKEN_CREATE_DATE</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -549,26 +534,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>64</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SEQ_BMI_RANGE_MT_ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>BMI範囲マスタID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント回復トークン情報</t>
-    <rPh sb="11" eb="13">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ACCOUNT_RECOVERY_TOKEN_DATA</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1030,6 +1000,54 @@
   </si>
   <si>
     <t>USER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GENDER_TYPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生日</t>
+    <rPh sb="0" eb="3">
+      <t>タンジョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BIRTH_DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1：男性、2：女性</t>
+    <rPh sb="2" eb="4">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000/01/01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1095,7 +1113,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1105,12 +1123,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,7 +1156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1180,12 +1192,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1501,19 +1507,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:L156"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="27.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="3" bestFit="1" customWidth="1"/>
@@ -1522,413 +1528,436 @@
     <col min="8" max="8" width="43.375" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.75" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="36.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="3"/>
+    <col min="11" max="11" width="15.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="36.5" style="3" customWidth="1"/>
+    <col min="13" max="13" width="15.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-    </row>
-    <row r="6" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-    </row>
-    <row r="7" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>48</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1938,1265 +1967,1306 @@
         <v>26</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>69</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J18" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J19" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="H21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="B22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G23" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>195</v>
+        <v>90</v>
       </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L23" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>34</v>
+        <v>91</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L29" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G30" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L30" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G31" s="2" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="J33" s="2"/>
-      <c r="K33" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="12" t="s">
+      <c r="I40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-    </row>
-    <row r="36" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-    </row>
-    <row r="37" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-    </row>
-    <row r="38" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-    </row>
-    <row r="39" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="L39" s="12"/>
-    </row>
-    <row r="40" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="L40" s="12"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G44" s="2" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>199</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G45" s="2" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="K45" s="2"/>
-      <c r="L45" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="I46" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>193</v>
       </c>
       <c r="K46" s="2"/>
-      <c r="L46" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L46" s="2"/>
+      <c r="M46" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>121</v>
+        <v>194</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M47" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M48" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="F49" s="2"/>
       <c r="G49" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J49" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J50" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J51" s="2"/>
-      <c r="K51" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="K51" s="2"/>
       <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="F52" s="2"/>
       <c r="G52" s="2" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J52" s="2"/>
-      <c r="K52" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K52" s="2"/>
       <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L53" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J54" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L54" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>129</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J56" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="2"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G58" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>122</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="J59" s="2"/>
-      <c r="K59" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K59" s="2"/>
       <c r="L59" s="2"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="F60" s="2"/>
       <c r="G60" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="H60" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="J60" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K60" s="2"/>
       <c r="L60" s="2"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L61" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>64</v>
@@ -3205,1033 +3275,894 @@
         <v>65</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J62" s="2"/>
-      <c r="K62" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="L62" s="2"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K62" s="2"/>
+      <c r="L62" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="J63" s="2"/>
-      <c r="K63" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L64" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L65" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="J67" s="2"/>
-      <c r="K67" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K67" s="2"/>
       <c r="L67" s="2"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="J68" s="2"/>
-      <c r="K68" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="K68" s="2"/>
       <c r="L68" s="2"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L69" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>49</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L70" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>47</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K72" s="2"/>
       <c r="L72" s="2"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="H73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I73" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="J73" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K73" s="2"/>
       <c r="L73" s="2"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="J74" s="2"/>
-      <c r="K74" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="L74" s="2"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K74" s="2"/>
+      <c r="L74" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>169</v>
+        <v>64</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>126</v>
+        <v>65</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="J75" s="2"/>
-      <c r="K75" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L75" s="2"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K75" s="2"/>
+      <c r="L75" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H76" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="L77" s="2"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+        <v>158</v>
+      </c>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L78" s="2"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="H79" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I79" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I79" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L79" s="2"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J79" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>72</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>189</v>
+        <v>63</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>164</v>
+        <v>90</v>
       </c>
       <c r="J80" s="2"/>
-      <c r="K80" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K80" s="2"/>
+      <c r="L80" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="L81" s="2"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>92</v>
+        <v>158</v>
       </c>
       <c r="J82" s="2"/>
-      <c r="K82" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L82" s="2"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="K82" s="2"/>
+      <c r="L82" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="H83" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L83" s="2"/>
-    </row>
-    <row r="84" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G84" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H84" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I84" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-    </row>
-    <row r="85" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K85" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L85" s="4"/>
-    </row>
-    <row r="86" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H86" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I86" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-    </row>
-    <row r="87" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G87" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-    </row>
-    <row r="88" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-    </row>
-    <row r="89" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I89" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J89" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-    </row>
-    <row r="90" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-    </row>
-    <row r="91" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J91" s="4"/>
-      <c r="K91" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L91" s="4"/>
-    </row>
-    <row r="92" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H92" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="L92" s="4"/>
-    </row>
-    <row r="93" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-    </row>
-    <row r="94" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-    </row>
-    <row r="95" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-    </row>
-    <row r="96" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G96" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H96" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I96" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-    </row>
-    <row r="97" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G97" s="4" t="s">
+      <c r="J83" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A84" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A85" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H97" s="4" t="s">
+      <c r="H85" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I97" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="L97" s="4"/>
-    </row>
-    <row r="98" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G98" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I98" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="L98" s="4"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4244,8 +4175,9 @@
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4258,8 +4190,9 @@
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4272,8 +4205,9 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M101" s="2"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4286,8 +4220,9 @@
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M102" s="2"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4300,8 +4235,9 @@
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M103" s="2"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4314,8 +4250,9 @@
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M104" s="2"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4328,8 +4265,9 @@
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M105" s="2"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4342,8 +4280,9 @@
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M106" s="2"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4356,8 +4295,9 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M107" s="2"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4370,8 +4310,9 @@
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="M108" s="2"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4384,106 +4325,114 @@
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-    </row>
-    <row r="117" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M109" s="2"/>
+    </row>
+    <row r="110" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+    </row>
+    <row r="111" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+    </row>
+    <row r="112" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+    </row>
+    <row r="113" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+    </row>
+    <row r="114" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+    </row>
+    <row r="115" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+    </row>
+    <row r="116" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+    </row>
+    <row r="117" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -4496,8 +4445,9 @@
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
-    </row>
-    <row r="118" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M117" s="4"/>
+    </row>
+    <row r="118" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -4510,8 +4460,9 @@
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
-    </row>
-    <row r="119" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M118" s="4"/>
+    </row>
+    <row r="119" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -4524,8 +4475,9 @@
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
-    </row>
-    <row r="120" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M119" s="4"/>
+    </row>
+    <row r="120" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -4538,8 +4490,9 @@
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
-    </row>
-    <row r="121" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M120" s="4"/>
+    </row>
+    <row r="121" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4552,8 +4505,9 @@
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
-    </row>
-    <row r="122" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M121" s="4"/>
+    </row>
+    <row r="122" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -4566,8 +4520,9 @@
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
-    </row>
-    <row r="123" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M122" s="4"/>
+    </row>
+    <row r="123" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -4580,8 +4535,9 @@
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
-    </row>
-    <row r="124" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M123" s="4"/>
+    </row>
+    <row r="124" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -4594,8 +4550,9 @@
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
-    </row>
-    <row r="125" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M124" s="4"/>
+    </row>
+    <row r="125" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -4608,8 +4565,9 @@
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
-    </row>
-    <row r="126" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M125" s="4"/>
+    </row>
+    <row r="126" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -4622,8 +4580,9 @@
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
-    </row>
-    <row r="127" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M126" s="4"/>
+    </row>
+    <row r="127" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -4636,8 +4595,9 @@
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
-    </row>
-    <row r="128" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M127" s="4"/>
+    </row>
+    <row r="128" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -4650,8 +4610,9 @@
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
-    </row>
-    <row r="129" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M128" s="4"/>
+    </row>
+    <row r="129" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -4664,8 +4625,9 @@
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
-    </row>
-    <row r="130" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M129" s="4"/>
+    </row>
+    <row r="130" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -4678,8 +4640,9 @@
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
-    </row>
-    <row r="131" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M130" s="4"/>
+    </row>
+    <row r="131" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -4692,8 +4655,9 @@
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
-    </row>
-    <row r="132" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M131" s="4"/>
+    </row>
+    <row r="132" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -4706,8 +4670,9 @@
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
-    </row>
-    <row r="133" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M132" s="4"/>
+    </row>
+    <row r="133" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -4720,8 +4685,9 @@
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
-    </row>
-    <row r="134" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M133" s="4"/>
+    </row>
+    <row r="134" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -4734,8 +4700,9 @@
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
-    </row>
-    <row r="135" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M134" s="4"/>
+    </row>
+    <row r="135" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -4748,8 +4715,9 @@
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
-    </row>
-    <row r="136" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M135" s="4"/>
+    </row>
+    <row r="136" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -4762,8 +4730,9 @@
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
-    </row>
-    <row r="137" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M136" s="4"/>
+    </row>
+    <row r="137" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -4776,8 +4745,9 @@
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
-    </row>
-    <row r="138" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M137" s="4"/>
+    </row>
+    <row r="138" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -4790,8 +4760,9 @@
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
       <c r="L138" s="4"/>
-    </row>
-    <row r="139" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M138" s="4"/>
+    </row>
+    <row r="139" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -4804,8 +4775,9 @@
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
-    </row>
-    <row r="140" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M139" s="4"/>
+    </row>
+    <row r="140" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -4818,8 +4790,9 @@
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
-    </row>
-    <row r="141" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M140" s="4"/>
+    </row>
+    <row r="141" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -4832,8 +4805,9 @@
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
-    </row>
-    <row r="142" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M141" s="4"/>
+    </row>
+    <row r="142" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -4846,8 +4820,9 @@
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
-    </row>
-    <row r="143" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M142" s="4"/>
+    </row>
+    <row r="143" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -4860,8 +4835,9 @@
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
-    </row>
-    <row r="144" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M143" s="4"/>
+    </row>
+    <row r="144" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -4874,8 +4850,9 @@
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
-    </row>
-    <row r="145" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M144" s="4"/>
+    </row>
+    <row r="145" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -4888,8 +4865,9 @@
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
-    </row>
-    <row r="146" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M145" s="4"/>
+    </row>
+    <row r="146" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -4902,8 +4880,9 @@
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
-    </row>
-    <row r="147" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M146" s="4"/>
+    </row>
+    <row r="147" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -4916,141 +4895,46 @@
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
-    </row>
-    <row r="148" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-    </row>
-    <row r="149" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-    </row>
-    <row r="150" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-    </row>
-    <row r="151" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-    </row>
-    <row r="152" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-    </row>
-    <row r="153" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-    </row>
-    <row r="154" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="4"/>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
-      <c r="F154" s="4"/>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
-      <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
+      <c r="M147" s="4"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L156" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:M149" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I156" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I149" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,BIGINT,DECIMAL,DATE,DATETIME,BOOLEAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F156" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F149" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5079,121 +4963,121 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="C1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="C3" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5222,58 +5106,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -5311,37 +5195,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913A3A80-EC36-4646-96C9-8170FDF4B391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23D1C0D-1BC1-45D4-8D04-D54E831BEC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1005" yWindow="600" windowWidth="24675" windowHeight="14625" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
@@ -1510,10 +1510,10 @@
   <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23D1C0D-1BC1-45D4-8D04-D54E831BEC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A0FED8-D239-48AE-BC9E-1AEAF005DA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1005" yWindow="600" windowWidth="24675" windowHeight="14625" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="208">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -1021,33 +1021,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BIRTH_DATE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1：男性、2：女性</t>
+    <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000/01/01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0：男性、1：女性</t>
     <rPh sb="2" eb="4">
       <t>ダンセイ</t>
     </rPh>
     <rPh sb="7" eb="9">
       <t>ジョセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Default</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2000/01/01</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1510,10 +1506,10 @@
   <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -1566,7 +1562,7 @@
         <v>41</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>2</v>
@@ -1858,10 +1854,10 @@
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M11" s="4"/>
     </row>
@@ -1882,14 +1878,14 @@
         <v>202</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2077C56-3A5C-4AA4-A0AB-E0EC462D4272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A85D795-406F-4576-9F40-83585FA00EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="855" windowWidth="24675" windowHeight="14625" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="5055" yWindow="0" windowWidth="23775" windowHeight="15585" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="211">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -333,20 +333,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>健康情報ステータス</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HEALTH_INFO_STATUS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>追加フラグ</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
@@ -1043,6 +1029,38 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USER_HEALTH_GOAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <rPh sb="0" eb="2">
+      <t>タイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標ID</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_HEALTH_GOAL_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ健康目標情報</t>
+    <rPh sb="3" eb="5">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1109,7 +1127,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1119,12 +1137,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,10 +1201,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1512,10 +1524,10 @@
   <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomRight" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -1550,10 +1562,10 @@
         <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>4</v>
@@ -1568,40 +1580,40 @@
         <v>41</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1610,16 +1622,16 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
@@ -1628,31 +1640,31 @@
         <v>6</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>39</v>
@@ -1661,10 +1673,10 @@
         <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1672,16 +1684,16 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>7</v>
@@ -1690,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1699,16 +1711,16 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>8</v>
@@ -1717,7 +1729,7 @@
         <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1726,10 +1738,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1742,7 +1754,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>44</v>
@@ -1753,10 +1765,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1769,7 +1781,7 @@
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>45</v>
@@ -1780,16 +1792,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>10</v>
@@ -1798,27 +1810,27 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>11</v>
@@ -1827,71 +1839,71 @@
         <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1904,23 +1916,23 @@
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1938,16 +1950,16 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1972,7 +1984,7 @@
         <v>22</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>46</v>
@@ -1999,7 +2011,7 @@
         <v>23</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>43</v>
@@ -2026,7 +2038,7 @@
         <v>24</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>43</v>
@@ -2053,7 +2065,7 @@
         <v>25</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>43</v>
@@ -2062,32 +2074,30 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I19" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="H19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
@@ -2101,13 +2111,13 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2124,19 +2134,23 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G21" s="1" t="s">
-        <v>97</v>
+        <v>10</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -2150,16 +2164,16 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -2170,31 +2184,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -2204,22 +2218,18 @@
       <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2238,13 +2248,13 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2263,13 +2273,13 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2288,13 +2298,13 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2311,19 +2321,23 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G28" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -2337,16 +2351,16 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2357,58 +2371,54 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>159</v>
+        <v>64</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2417,10 +2427,10 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2433,7 +2443,7 @@
         <v>58</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -2442,68 +2452,72 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J33" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G34" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>61</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="L34" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>62</v>
@@ -2512,7 +2526,7 @@
         <v>63</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -2523,58 +2537,56 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>198</v>
+        <v>89</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2583,99 +2595,101 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J38" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="L40" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>62</v>
@@ -2684,7 +2698,7 @@
         <v>63</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -2695,58 +2709,56 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2755,95 +2767,97 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J44" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="M45" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H46" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2853,55 +2867,53 @@
         <v>184</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2914,10 +2926,10 @@
         <v>107</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2925,15 +2937,17 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G50" s="1" t="s">
         <v>108</v>
       </c>
@@ -2941,28 +2955,24 @@
         <v>109</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
         <v>110</v>
       </c>
@@ -2970,7 +2980,7 @@
         <v>111</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -2979,130 +2989,134 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G52" s="1" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
+      <c r="L52" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="M52" s="1"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+        <v>144</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="1" t="s">
-        <v>176</v>
-      </c>
+      <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J55" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>121</v>
@@ -3111,27 +3125,25 @@
         <v>122</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>190</v>
+        <v>116</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>123</v>
@@ -3140,7 +3152,7 @@
         <v>124</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3149,25 +3161,25 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3176,70 +3188,72 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J59" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G60" s="1" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
+      <c r="L60" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>62</v>
@@ -3248,7 +3262,7 @@
         <v>63</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -3259,76 +3273,76 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-      <c r="L62" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
+      <c r="L63" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>62</v>
@@ -3337,7 +3351,7 @@
         <v>63</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -3353,53 +3367,51 @@
       <c r="B65" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="C65" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>65</v>
+        <v>154</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G66" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="I66" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3408,25 +3420,25 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="H67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -3435,43 +3447,45 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
+      <c r="L68" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>62</v>
@@ -3480,7 +3494,7 @@
         <v>63</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -3491,88 +3505,88 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>133</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J71" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G72" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="I72" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -3580,45 +3594,45 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
+      <c r="L73" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="M73" s="1"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>62</v>
@@ -3627,7 +3641,7 @@
         <v>63</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -3638,169 +3652,169 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M76" s="1"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J77" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="M77" s="1"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M79" s="1"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>62</v>
@@ -3809,7 +3823,7 @@
         <v>63</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
@@ -3820,109 +3834,109 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>65</v>
+        <v>181</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>70</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J82" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>171</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M83" s="1"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>62</v>
@@ -3931,7 +3945,7 @@
         <v>63</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
@@ -3940,109 +3954,173 @@
       </c>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A85" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="M85" s="1"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-      <c r="M87" s="1"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
-      <c r="M88" s="1"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="L89" s="1"/>
-      <c r="M89" s="1"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
+    <row r="85" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="I85" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+    </row>
+    <row r="86" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G86" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+    </row>
+    <row r="87" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J87" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+    </row>
+    <row r="88" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+    </row>
+    <row r="89" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G89" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+    </row>
+    <row r="90" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1"/>
@@ -4965,121 +5043,121 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="C1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5108,58 +5186,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5209,7 +5287,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>4</v>
@@ -5227,7 +5305,7 @@
         <v>2</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A85D795-406F-4576-9F40-83585FA00EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764E7A2E-EA48-4D8D-952C-B517C4356089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="0" windowWidth="23775" windowHeight="15585" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="226">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -604,9 +604,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SEQ_ROOT_LOGIN_INFO_ID</t>
-  </si>
-  <si>
     <t>パスワード</t>
   </si>
   <si>
@@ -817,10 +814,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理者サイトユーザログイン情報ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SEQ_ROOT_LOGIN_INFO_ID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1062,6 +1055,90 @@
     <rPh sb="7" eb="9">
       <t>ジョウホウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ管理情報</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INQUIRY_MANAGEMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせID</t>
+  </si>
+  <si>
+    <t>問い合わせステータス</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ種別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_INQUIRY_MNG_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INQUIRY_STATUS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INQUIRY_TYPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TITLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応者ログイン情報ID</t>
+  </si>
+  <si>
+    <t>SEQ_ROOT_LOGIN_INFO_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESPONDER_LOGIN_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1524,10 +1601,10 @@
   <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F79" sqref="F79"/>
+      <selection pane="bottomRight" activeCell="I94" sqref="I94:I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -1580,7 +1657,7 @@
         <v>41</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>2</v>
@@ -1591,10 +1668,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -1613,7 +1690,7 @@
         <v>89</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1622,10 +1699,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1653,10 +1730,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1684,10 +1761,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1702,7 +1779,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1711,10 +1788,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1738,10 +1815,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1765,10 +1842,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1792,10 +1869,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1815,16 +1892,16 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1844,16 +1921,16 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1862,10 +1939,10 @@
         <v>68</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>64</v>
@@ -1875,16 +1952,16 @@
         <v>75</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1893,17 +1970,17 @@
         <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1932,7 +2009,7 @@
         <v>71</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1959,7 +2036,7 @@
         <v>89</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2117,7 +2194,7 @@
         <v>94</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2149,7 +2226,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M21" s="1"/>
     </row>
@@ -2178,7 +2255,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M22" s="1"/>
     </row>
@@ -2204,7 +2281,7 @@
         <v>89</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2229,7 +2306,7 @@
         <v>31</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2254,7 +2331,7 @@
         <v>32</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2279,7 +2356,7 @@
         <v>33</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2304,7 +2381,7 @@
         <v>34</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2336,7 +2413,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M28" s="1"/>
     </row>
@@ -2365,7 +2442,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M29" s="1"/>
     </row>
@@ -2393,7 +2470,7 @@
         <v>94</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2502,7 +2579,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M34" s="1"/>
     </row>
@@ -2531,16 +2608,16 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>68</v>
@@ -2556,10 +2633,10 @@
         <v>96</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2568,10 +2645,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2586,7 +2663,7 @@
         <v>89</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2595,10 +2672,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2624,10 +2701,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2651,10 +2728,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2674,16 +2751,16 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2703,7 +2780,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M41" s="1"/>
     </row>
@@ -2731,7 +2808,7 @@
         <v>115</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2752,13 +2829,13 @@
         <v>68</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="I43" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2806,21 +2883,21 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
@@ -2835,21 +2912,21 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
@@ -2864,21 +2941,21 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
@@ -3012,7 +3089,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M52" s="1"/>
     </row>
@@ -3041,7 +3118,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M53" s="1"/>
     </row>
@@ -3050,7 +3127,7 @@
         <v>117</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>68</v>
@@ -3063,13 +3140,13 @@
         <v>68</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -3090,10 +3167,10 @@
         <v>68</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>65</v>
@@ -3110,7 +3187,7 @@
         <v>117</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3119,13 +3196,13 @@
         <v>68</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="I56" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3146,10 +3223,10 @@
         <v>68</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>66</v>
@@ -3164,7 +3241,7 @@
         <v>117</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3173,13 +3250,13 @@
         <v>68</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3198,10 +3275,10 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>65</v>
@@ -3238,7 +3315,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M60" s="1"/>
     </row>
@@ -3267,16 +3344,16 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M61" s="1"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>68</v>
@@ -3289,13 +3366,13 @@
         <v>68</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -3304,10 +3381,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3327,16 +3404,16 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3356,16 +3433,16 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>68</v>
@@ -3378,13 +3455,13 @@
         <v>68</v>
       </c>
       <c r="G65" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H65" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="I65" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -3393,10 +3470,10 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3405,13 +3482,13 @@
         <v>68</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3420,10 +3497,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3432,13 +3509,13 @@
         <v>68</v>
       </c>
       <c r="G67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H67" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="I67" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -3447,10 +3524,10 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3470,16 +3547,16 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3499,16 +3576,16 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>68</v>
@@ -3521,13 +3598,13 @@
         <v>68</v>
       </c>
       <c r="G70" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="I70" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -3536,10 +3613,10 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3548,10 +3625,10 @@
         <v>68</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>65</v>
@@ -3565,10 +3642,10 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3577,10 +3654,10 @@
         <v>68</v>
       </c>
       <c r="G72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H72" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>65</v>
@@ -3594,10 +3671,10 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3617,16 +3694,16 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M73" s="1"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3646,16 +3723,16 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>68</v>
@@ -3668,27 +3745,27 @@
         <v>68</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3697,27 +3774,27 @@
         <v>68</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>118</v>
+        <v>223</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M76" s="1"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3726,29 +3803,29 @@
         <v>68</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M77" s="1"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3757,29 +3834,29 @@
         <v>68</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3799,16 +3876,16 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M79" s="1"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3828,16 +3905,16 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M80" s="1"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>68</v>
@@ -3850,27 +3927,27 @@
         <v>68</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3879,29 +3956,29 @@
         <v>68</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3921,16 +3998,16 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M83" s="1"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3950,327 +4027,455 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M84" s="1"/>
     </row>
-    <row r="85" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="10" t="s">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B85" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="H85" s="10" t="s">
+      <c r="C91" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="I91" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+    </row>
+    <row r="92" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A92" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="I85" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-    </row>
-    <row r="86" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="10" t="s">
+      <c r="B92" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G86" s="10" t="s">
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G92" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="H92" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="I86" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-    </row>
-    <row r="87" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="10" t="s">
+      <c r="I92" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+    </row>
+    <row r="93" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A93" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B93" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H87" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I87" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J87" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-    </row>
-    <row r="88" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="10" t="s">
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J93" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+    </row>
+    <row r="94" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A94" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B94" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H88" s="10" t="s">
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J94" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+    </row>
+    <row r="95" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A95" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="I95" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J95" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+    </row>
+    <row r="96" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A96" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G96" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="H96" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="I96" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J96" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+    </row>
+    <row r="97" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A97" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B97" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G97" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H97" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+    </row>
+    <row r="98" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A98" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+    </row>
+    <row r="99" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A99" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B99" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G99" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H99" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I88" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-    </row>
-    <row r="89" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="10" t="s">
+      <c r="I99" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+    </row>
+    <row r="100" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B100" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I89" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-    </row>
-    <row r="90" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I90" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A95" s="1"/>
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1"/>
-      <c r="M96" s="1"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="L98" s="1"/>
-      <c r="M98" s="1"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="I100" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="1"/>
@@ -5186,10 +5391,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>61</v>
@@ -5200,10 +5405,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>74</v>
@@ -5214,10 +5419,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>74</v>
@@ -5228,10 +5433,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>74</v>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764E7A2E-EA48-4D8D-952C-B517C4356089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668FBC1A-6D0E-46C7-B9A8-EF53DF04556E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="420" yWindow="360" windowWidth="24240" windowHeight="14625" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="TEMPLATE" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$M$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$M$151</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$M$149</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$M$151</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="243">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -1127,18 +1127,131 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>SEQ_ROOT_LOGIN_INFO_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESPONDER_LOGIN_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ情報を保存するS3キー</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせしたユーザID</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>対応者ログイン情報ID</t>
-  </si>
-  <si>
-    <t>SEQ_ROOT_LOGIN_INFO_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RESPONDER_LOGIN_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせ種別マスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INQUIRY_TYPE_MT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足説明</t>
+    <rPh sb="0" eb="4">
+      <t>ホソクセツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_FLAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示順</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DISP_ORDER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示時の表示順</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒョウジジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TRUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FALSE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1598,18 +1711,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I94" sqref="I94:I100"/>
+      <selection pane="bottomRight" activeCell="L104" sqref="L104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.75" style="2" bestFit="1" customWidth="1"/>
@@ -3777,7 +3890,7 @@
         <v>126</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>155</v>
@@ -4199,448 +4312,568 @@
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
     </row>
-    <row r="91" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="10" t="s">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G91" s="10" t="s">
+      <c r="C91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="H91" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I91" s="10" t="s">
+      <c r="I91" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-    </row>
-    <row r="92" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A92" s="10" t="s">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G92" s="10" t="s">
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H92" s="10" t="s">
+      <c r="H92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I92" s="10" t="s">
+      <c r="I92" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-    </row>
-    <row r="93" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A93" s="10" t="s">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G93" s="10" t="s">
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="H93" s="10" t="s">
+      <c r="H93" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I93" s="10" t="s">
+      <c r="I93" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J93" s="10" t="s">
+      <c r="J93" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-    </row>
-    <row r="94" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="10" t="s">
+      <c r="K93" s="1"/>
+      <c r="L93" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G94" s="10" t="s">
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H94" s="10" t="s">
+      <c r="H94" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I94" s="10" t="s">
+      <c r="I94" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J94" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="10"/>
-    </row>
-    <row r="95" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A95" s="10" t="s">
+      <c r="J94" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10" t="s">
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H95" s="10" t="s">
+      <c r="H95" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I95" s="10" t="s">
+      <c r="I95" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J95" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-    </row>
-    <row r="96" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A96" s="10" t="s">
+      <c r="J95" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G96" s="10" t="s">
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G96" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="H96" s="10" t="s">
+      <c r="H96" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I96" s="10" t="s">
+      <c r="I96" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J96" s="10" t="s">
+      <c r="J96" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
-    </row>
-    <row r="97" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="10" t="s">
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G97" s="10" t="s">
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="H97" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I97" s="10" t="s">
+      <c r="I97" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-    </row>
-    <row r="98" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A98" s="10" t="s">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G98" s="10" t="s">
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G98" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H98" s="10" t="s">
+      <c r="H98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I98" s="10" t="s">
+      <c r="I98" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-    </row>
-    <row r="99" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="10" t="s">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G99" s="10" t="s">
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G99" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H99" s="10" t="s">
+      <c r="H99" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I99" s="10" t="s">
+      <c r="I99" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-    </row>
-    <row r="100" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A100" s="10" t="s">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="H100" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="I100" s="10" t="s">
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I100" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A101" s="1"/>
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A102" s="1"/>
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A103" s="1"/>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A101" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="I101" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J101" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+    </row>
+    <row r="102" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A102" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G102" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="H102" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I102" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+    </row>
+    <row r="103" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A103" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="H103" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="I103" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="J103" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+    </row>
+    <row r="104" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A104" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G104" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+    </row>
+    <row r="105" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A105" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I105" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="M105" s="10"/>
+    </row>
+    <row r="106" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A106" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+    </row>
+    <row r="107" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A107" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G107" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H107" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="M107" s="10"/>
+    </row>
+    <row r="108" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A108" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G108" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="H108" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="M108" s="10"/>
+    </row>
+    <row r="109" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+    </row>
+    <row r="110" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+    </row>
+    <row r="111" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" s="1"/>
@@ -5212,14 +5445,44 @@
       <c r="L149" s="1"/>
       <c r="M149" s="1"/>
     </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M149" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:M151" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I149" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I151" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,BIGINT,DECIMAL,DATE,DATETIME,BOOLEAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F149" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F151" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668FBC1A-6D0E-46C7-B9A8-EF53DF04556E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7AF8E2-072C-483A-8A3B-4D4B8FFA725D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="360" windowWidth="24240" windowHeight="14625" tabRatio="463" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-60" yWindow="180" windowWidth="14430" windowHeight="14475" tabRatio="696" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
     <sheet name="BMI_RANGE_MT" sheetId="3" r:id="rId2"/>
     <sheet name="ROOT_ROLE_MT" sheetId="4" r:id="rId3"/>
-    <sheet name="TEMPLATE" sheetId="2" r:id="rId4"/>
+    <sheet name="INQUIRY_TYPE_MT" sheetId="6" r:id="rId4"/>
+    <sheet name="INQUIRY_STATUS_MT" sheetId="7" r:id="rId5"/>
+    <sheet name="TEMPLATE" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$M$151</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$M$151</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$M$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$M$150</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="265">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -443,18 +445,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>18</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>25</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>11</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -472,22 +466,6 @@
   </si>
   <si>
     <t>13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>999</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1252,6 +1230,146 @@
   </si>
   <si>
     <t>FALSE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INQUIRY_TYPE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>DISP_FLAG</t>
+  </si>
+  <si>
+    <t>DISP_ORDER</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>不具合</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要望</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションの不具合や通信エラー時に指定</t>
+    <rPh sb="9" eb="12">
+      <t>フグアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリケーションの改善点の報告時に指定</t>
+    <rPh sb="9" eb="12">
+      <t>カイゼンテン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問い合わせステータスマスタ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INQUIRY_STATUS_MT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INQUIRY_STATUS</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>未対応</t>
+    <rPh sb="0" eb="3">
+      <t>ミタイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応中</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2025/8/9 9:38:12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>999</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/07/26 12:34:56</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1259,7 +1377,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1305,13 +1423,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1391,10 +1502,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1711,13 +1822,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L104" sqref="L104"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -1770,7 +1881,7 @@
         <v>41</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>2</v>
@@ -1781,10 +1892,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -1800,10 +1911,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1812,10 +1923,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1843,10 +1954,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1874,10 +1985,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1892,7 +2003,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1901,10 +2012,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1928,10 +2039,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1955,10 +2066,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1982,10 +2093,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2000,21 +2111,21 @@
         <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2029,21 +2140,21 @@
         <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2052,10 +2163,10 @@
         <v>68</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>64</v>
@@ -2065,16 +2176,16 @@
         <v>75</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2083,17 +2194,17 @@
         <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2122,7 +2233,7 @@
         <v>71</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2146,10 +2257,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2282,7 +2393,7 @@
         <v>52</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2301,13 +2412,13 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2334,12 +2445,12 @@
         <v>16</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M21" s="1"/>
     </row>
@@ -2363,12 +2474,12 @@
         <v>17</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M22" s="1"/>
     </row>
@@ -2391,10 +2502,10 @@
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2419,7 +2530,7 @@
         <v>31</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2444,7 +2555,7 @@
         <v>32</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2469,7 +2580,7 @@
         <v>33</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2494,7 +2605,7 @@
         <v>34</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2521,12 +2632,12 @@
         <v>16</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M28" s="1"/>
     </row>
@@ -2550,12 +2661,12 @@
         <v>17</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M29" s="1"/>
     </row>
@@ -2577,13 +2688,13 @@
         <v>68</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2652,7 +2763,7 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>59</v>
@@ -2687,12 +2798,12 @@
         <v>61</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M34" s="1"/>
     </row>
@@ -2716,21 +2827,21 @@
         <v>63</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>68</v>
@@ -2743,13 +2854,13 @@
         <v>68</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
@@ -2758,10 +2869,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2773,10 +2884,10 @@
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -2785,10 +2896,10 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2797,10 +2908,10 @@
         <v>68</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>65</v>
@@ -2814,10 +2925,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2826,13 +2937,13 @@
         <v>68</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2841,10 +2952,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2859,21 +2970,21 @@
         <v>61</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2888,21 +2999,21 @@
         <v>63</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>68</v>
@@ -2915,13 +3026,13 @@
         <v>68</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -2930,10 +3041,10 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2942,13 +3053,13 @@
         <v>68</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2957,10 +3068,10 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2969,16 +3080,16 @@
         <v>68</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2986,113 +3097,113 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -3100,26 +3211,26 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -3127,10 +3238,10 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -3139,13 +3250,13 @@
         <v>68</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3154,23 +3265,23 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -3179,10 +3290,10 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -3197,21 +3308,21 @@
         <v>63</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M52" s="1"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3226,21 +3337,21 @@
         <v>61</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>68</v>
@@ -3253,13 +3364,13 @@
         <v>68</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -3268,10 +3379,10 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3280,16 +3391,16 @@
         <v>68</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -3297,10 +3408,10 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3309,13 +3420,13 @@
         <v>68</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3324,10 +3435,10 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3336,10 +3447,10 @@
         <v>68</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>66</v>
@@ -3351,10 +3462,10 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -3363,13 +3474,13 @@
         <v>68</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3378,26 +3489,26 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -3405,10 +3516,10 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3423,21 +3534,21 @@
         <v>61</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3452,21 +3563,21 @@
         <v>63</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M61" s="1"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>68</v>
@@ -3479,13 +3590,13 @@
         <v>68</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -3494,10 +3605,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3512,21 +3623,21 @@
         <v>61</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3541,21 +3652,21 @@
         <v>63</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>68</v>
@@ -3568,13 +3679,13 @@
         <v>68</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -3583,10 +3694,10 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3595,13 +3706,13 @@
         <v>68</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3610,10 +3721,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3622,13 +3733,13 @@
         <v>68</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
@@ -3637,10 +3748,10 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3655,21 +3766,21 @@
         <v>61</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3684,21 +3795,21 @@
         <v>63</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>68</v>
@@ -3711,13 +3822,13 @@
         <v>68</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -3726,10 +3837,10 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3738,10 +3849,10 @@
         <v>68</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>65</v>
@@ -3755,10 +3866,10 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3767,10 +3878,10 @@
         <v>68</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>65</v>
@@ -3784,10 +3895,10 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3802,21 +3913,21 @@
         <v>61</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M73" s="1"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3831,21 +3942,21 @@
         <v>63</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>68</v>
@@ -3858,27 +3969,27 @@
         <v>68</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3887,27 +3998,27 @@
         <v>68</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M76" s="1"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3916,29 +4027,29 @@
         <v>68</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M77" s="1"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3947,29 +4058,29 @@
         <v>68</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3984,21 +4095,21 @@
         <v>61</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M79" s="1"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -4013,21 +4124,21 @@
         <v>63</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M80" s="1"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>68</v>
@@ -4040,27 +4151,27 @@
         <v>68</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -4069,29 +4180,29 @@
         <v>68</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -4106,21 +4217,21 @@
         <v>61</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M83" s="1"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -4135,21 +4246,21 @@
         <v>63</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M84" s="1"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>68</v>
@@ -4162,13 +4273,13 @@
         <v>68</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
@@ -4177,10 +4288,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -4192,10 +4303,10 @@
         <v>1</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
@@ -4204,10 +4315,10 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -4216,7 +4327,7 @@
         <v>68</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>23</v>
@@ -4233,10 +4344,10 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -4251,7 +4362,7 @@
         <v>12</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -4260,10 +4371,10 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4278,7 +4389,7 @@
         <v>17</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
@@ -4287,10 +4398,10 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -4305,7 +4416,7 @@
         <v>16</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
@@ -4314,10 +4425,10 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>68</v>
@@ -4330,13 +4441,13 @@
         <v>68</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -4345,10 +4456,10 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -4360,24 +4471,24 @@
         <v>1</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M92" s="1"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -4386,29 +4497,29 @@
         <v>68</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M93" s="1"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -4417,16 +4528,16 @@
         <v>68</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -4434,26 +4545,26 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -4461,10 +4572,10 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -4473,16 +4584,16 @@
         <v>68</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -4490,10 +4601,10 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4502,27 +4613,27 @@
         <v>68</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M97" s="1"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -4531,27 +4642,27 @@
         <v>68</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -4560,13 +4671,13 @@
         <v>68</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
@@ -4575,334 +4686,406 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A101" s="10" t="s">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B101" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H101" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="I101" s="10" t="s">
+      <c r="I104" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I109" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J101" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-    </row>
-    <row r="102" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A102" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B102" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="I102" s="10" t="s">
+      <c r="J109" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I110" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J102" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-    </row>
-    <row r="103" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A103" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="I103" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="J103" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
-    </row>
-    <row r="104" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B104" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="I104" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10" t="s">
+      <c r="J110" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
-    </row>
-    <row r="105" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="H105" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="I105" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10"/>
-      <c r="L105" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="M105" s="10"/>
-    </row>
-    <row r="106" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A106" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="H106" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I106" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="L106" s="10"/>
-      <c r="M106" s="10"/>
-    </row>
-    <row r="107" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A107" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="H107" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I107" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10"/>
-      <c r="L107" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="M107" s="10"/>
-    </row>
-    <row r="108" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A108" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="H108" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I108" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J108" s="10"/>
-      <c r="K108" s="10"/>
-      <c r="L108" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="M108" s="10"/>
-    </row>
-    <row r="109" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-    </row>
-    <row r="110" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
-    </row>
-    <row r="111" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
-      <c r="L111" s="10"/>
-      <c r="M111" s="10"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
+      <c r="A112" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
+      <c r="F112" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
+      <c r="L112" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="M112" s="1"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A113" s="1"/>
-      <c r="B113" s="1"/>
+      <c r="A113" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
+      <c r="L113" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="M113" s="1"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
@@ -5460,29 +5643,14 @@
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
-      <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1"/>
-      <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:M151" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:M150" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I151" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I150" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,BIGINT,DECIMAL,DATE,DATETIME,BOOLEAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F151" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F150" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5497,7 +5665,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -5528,81 +5696,81 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>84</v>
+        <v>258</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>85</v>
+        <v>259</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>85</v>
+        <v>259</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>74</v>
@@ -5613,19 +5781,19 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>86</v>
+        <v>260</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>74</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5641,7 +5809,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -5654,10 +5822,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>61</v>
@@ -5668,10 +5836,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>74</v>
@@ -5682,10 +5850,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>74</v>
@@ -5696,10 +5864,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>74</v>
@@ -5716,6 +5884,199 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3EB3A8-2C2E-4204-8235-DE586BEF311C}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="18.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F2" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0764671D-DBCE-4209-ABCA-CD95534B3F5A}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C2" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8226E27-9270-4524-A864-822221B9E79E}">
   <dimension ref="A1:K69"/>
   <sheetViews>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7AF8E2-072C-483A-8A3B-4D4B8FFA725D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A830EFC-0F45-4E09-8AD0-8F7F013AB20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="180" windowWidth="14430" windowHeight="14475" tabRatio="696" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="270" yWindow="270" windowWidth="19065" windowHeight="15150" tabRatio="696" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -1825,7 +1825,7 @@
   <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A830EFC-0F45-4E09-8AD0-8F7F013AB20B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E507D38-8631-49F9-9811-7FECFE1738CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="270" windowWidth="19065" windowHeight="15150" tabRatio="696" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="0" yWindow="165" windowWidth="21450" windowHeight="15150" tabRatio="696" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="TEMPLATE" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$M$150</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$M$152</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$M$150</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$M$152</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="266">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -1370,6 +1370,10 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NEWS_INFO</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1377,7 +1381,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1427,6 +1431,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1471,7 +1482,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1506,6 +1517,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1822,13 +1839,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -1849,7 +1866,7 @@
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>49</v>
       </c>
@@ -2006,7 +2023,9 @@
         <v>179</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="12" t="s">
+        <v>241</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
@@ -3429,7 +3448,9 @@
         <v>179</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+      <c r="K56" s="12" t="s">
+        <v>241</v>
+      </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
@@ -4133,38 +4154,34 @@
       </c>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A81" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="M81" s="1"/>
+    <row r="81" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
@@ -4173,27 +4190,29 @@
       <c r="B82" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="C82" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M82" s="1"/>
     </row>
@@ -4211,18 +4230,20 @@
         <v>68</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>60</v>
+        <v>159</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J83" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M83" s="1"/>
     </row>
@@ -4240,10 +4261,10 @@
         <v>68</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>82</v>
@@ -4251,67 +4272,67 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M84" s="1"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>200</v>
+        <v>62</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>201</v>
+        <v>63</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
+      <c r="L85" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A86" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
+    <row r="86" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="I86" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
@@ -4320,24 +4341,26 @@
       <c r="B87" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>23</v>
+        <v>201</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
@@ -4356,13 +4379,13 @@
         <v>68</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
@@ -4383,15 +4406,17 @@
         <v>68</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J89" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
@@ -4410,44 +4435,42 @@
         <v>68</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
+      <c r="K90" s="12" t="s">
+        <v>241</v>
+      </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>212</v>
+        <v>17</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -4456,10 +4479,10 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -4468,19 +4491,17 @@
         <v>68</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
-      <c r="L92" s="1" t="s">
-        <v>220</v>
-      </c>
+      <c r="L92" s="1"/>
       <c r="M92" s="1"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
@@ -4490,28 +4511,28 @@
       <c r="B93" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>159</v>
+        <v>205</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="J93" s="1"/>
       <c r="K93" s="1"/>
-      <c r="L93" s="1" t="s">
-        <v>219</v>
-      </c>
+      <c r="L93" s="1"/>
       <c r="M93" s="1"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
@@ -4528,19 +4549,19 @@
         <v>68</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="J94" s="1"/>
       <c r="K94" s="1"/>
-      <c r="L94" s="1"/>
+      <c r="L94" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="M94" s="1"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
@@ -4553,21 +4574,25 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G95" s="1" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="K95" s="1"/>
-      <c r="L95" s="1"/>
+      <c r="L95" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="M95" s="1"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
@@ -4584,16 +4609,16 @@
         <v>68</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -4609,23 +4634,21 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="F97" s="1"/>
       <c r="G97" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J97" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="K97" s="1"/>
-      <c r="L97" s="1" t="s">
-        <v>169</v>
-      </c>
+      <c r="L97" s="1"/>
       <c r="M97" s="1"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
@@ -4642,19 +4665,19 @@
         <v>68</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J98" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="K98" s="1"/>
-      <c r="L98" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="L98" s="1"/>
       <c r="M98" s="1"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
@@ -4671,17 +4694,19 @@
         <v>68</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
+      <c r="L99" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
@@ -4694,77 +4719,75 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
+      <c r="F100" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G100" s="1" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
+      <c r="L100" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="M100" s="1"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K101" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="J101" s="1"/>
+      <c r="K101" s="12" t="s">
+        <v>241</v>
+      </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>230</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
@@ -4776,21 +4799,25 @@
       <c r="B103" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G103" s="1" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -4810,18 +4837,18 @@
         <v>68</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
     </row>
@@ -4835,23 +4862,21 @@
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J105" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="K105" s="1"/>
-      <c r="L105" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="L105" s="1"/>
       <c r="M105" s="1"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
@@ -4868,17 +4893,17 @@
         <v>68</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
@@ -4897,18 +4922,18 @@
         <v>68</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>17</v>
+        <v>233</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="M107" s="1"/>
     </row>
@@ -4926,58 +4951,56 @@
         <v>68</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="K108" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="L108" s="1"/>
       <c r="M108" s="1"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C109" s="1"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>248</v>
+        <v>17</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>249</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="J109" s="1"/>
       <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
+      <c r="L109" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="M109" s="1"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4986,19 +5009,19 @@
         <v>68</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>224</v>
+        <v>16</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="J110" s="1"/>
       <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
+      <c r="L110" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="M110" s="1"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
@@ -5008,25 +5031,27 @@
       <c r="B111" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C111" s="1"/>
+      <c r="C111" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>114</v>
+        <v>206</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J111" s="1"/>
-      <c r="K111" s="1" t="s">
-        <v>241</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
     </row>
@@ -5044,19 +5069,19 @@
         <v>68</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J112" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="K112" s="1"/>
-      <c r="L112" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="L112" s="1"/>
       <c r="M112" s="1"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
@@ -5073,49 +5098,77 @@
         <v>68</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="J113" s="1"/>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="K113" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L113" s="1"/>
       <c r="M113" s="1"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
-      <c r="L114" s="1"/>
+      <c r="L114" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="M114" s="1"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A115" s="1"/>
-      <c r="B115" s="1"/>
+      <c r="A115" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
+      <c r="L115" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="M115" s="1"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
@@ -5643,14 +5696,44 @@
       <c r="L150" s="1"/>
       <c r="M150" s="1"/>
     </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M150" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:M152" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I150" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I152" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,BIGINT,DECIMAL,DATE,DATETIME,BOOLEAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F150" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F152" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E507D38-8631-49F9-9811-7FECFE1738CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305C56FF-8B96-4594-95AB-E703CE8F0FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="165" windowWidth="21450" windowHeight="15150" tabRatio="696" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="696" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="267">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -1374,6 +1374,10 @@
   </si>
   <si>
     <t>NEWS_INFO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>36</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1482,7 +1486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1522,9 +1526,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1543,9 +1544,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1583,7 +1584,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1689,7 +1690,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1831,7 +1832,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1842,10 +1843,10 @@
   <dimension ref="A1:M152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -2023,7 +2024,7 @@
         <v>179</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="1" t="s">
         <v>241</v>
       </c>
       <c r="L5" s="1"/>
@@ -3077,10 +3078,12 @@
       <c r="H43" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J43" s="1"/>
+      <c r="I43" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J43" s="12" t="s">
+        <v>266</v>
+      </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -3124,7 +3127,9 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>181</v>
       </c>
@@ -3153,7 +3158,9 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G46" s="1" t="s">
         <v>174</v>
       </c>
@@ -3448,7 +3455,7 @@
         <v>179</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="12" t="s">
+      <c r="K56" s="1" t="s">
         <v>241</v>
       </c>
       <c r="L56" s="1"/>
@@ -4154,34 +4161,34 @@
       </c>
       <c r="M80" s="1"/>
     </row>
-    <row r="81" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="12" t="s">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G81" s="12" t="s">
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H81" s="12" t="s">
+      <c r="H81" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I81" s="12" t="s">
+      <c r="I81" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12" t="s">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
@@ -4305,34 +4312,34 @@
       </c>
       <c r="M85" s="1"/>
     </row>
-    <row r="86" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="12" t="s">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G86" s="12" t="s">
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H86" s="12" t="s">
+      <c r="H86" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I86" s="12" t="s">
+      <c r="I86" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12" t="s">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
@@ -4444,7 +4451,7 @@
         <v>179</v>
       </c>
       <c r="J90" s="1"/>
-      <c r="K90" s="12" t="s">
+      <c r="K90" s="1" t="s">
         <v>241</v>
       </c>
       <c r="L90" s="1"/>
@@ -4761,7 +4768,7 @@
         <v>179</v>
       </c>
       <c r="J101" s="1"/>
-      <c r="K101" s="12" t="s">
+      <c r="K101" s="1" t="s">
         <v>241</v>
       </c>
       <c r="L101" s="1"/>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305C56FF-8B96-4594-95AB-E703CE8F0FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D64FF-E989-48E5-9720-20624D410208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="696" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
@@ -21,9 +21,9 @@
     <sheet name="TEMPLATE" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$M$152</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TABLE_LIST!$A$1:$M$157</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">TEMPLATE!$A$1:$K$69</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$M$152</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TABLE_LIST!$A$1:$M$157</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="267">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -1486,7 +1486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1524,6 +1524,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1840,13 +1843,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
-  <dimension ref="A1:M152"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomRight" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -2094,7 +2097,9 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
@@ -2125,10 +2130,10 @@
         <v>68</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>82</v>
@@ -2136,7 +2141,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M9" s="1"/>
     </row>
@@ -2154,10 +2159,10 @@
         <v>68</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>82</v>
@@ -2165,7 +2170,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -2297,7 +2302,9 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>26</v>
       </c>
@@ -2324,7 +2331,9 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>27</v>
       </c>
@@ -2351,7 +2360,9 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>24</v>
       </c>
@@ -2378,7 +2389,9 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2405,7 +2418,9 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G19" s="1" t="s">
         <v>51</v>
       </c>
@@ -2430,7 +2445,9 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>89</v>
       </c>
@@ -2459,19 +2476,19 @@
         <v>68</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="K21" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -2505,31 +2522,31 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -2539,18 +2556,22 @@
       <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G24" s="1" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2567,18 +2588,22 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
@@ -2592,18 +2617,22 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
@@ -2617,18 +2646,22 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
@@ -2646,19 +2679,19 @@
         <v>68</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="K28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -2692,33 +2725,31 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
@@ -2728,18 +2759,24 @@
       <c r="B31" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G31" s="1" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2756,12 +2793,14 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>64</v>
@@ -2781,19 +2820,19 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G33" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2812,19 +2851,19 @@
         <v>68</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J34" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="K34" s="1"/>
-      <c r="L34" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -2841,58 +2880,56 @@
         <v>68</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="K35" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>188</v>
+        <v>63</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="L36" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="M36" s="1"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>186</v>
+        <v>54</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2901,17 +2938,19 @@
         <v>68</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="L37" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
@@ -2921,24 +2960,26 @@
       <c r="B38" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2957,13 +2998,13 @@
         <v>68</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -2984,19 +3025,19 @@
         <v>68</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J40" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="K40" s="1"/>
-      <c r="L40" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
@@ -3013,58 +3054,54 @@
         <v>68</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>82</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3073,27 +3110,27 @@
         <v>68</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>266</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
+      <c r="L43" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3102,19 +3139,19 @@
         <v>68</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
+      <c r="L44" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="M44" s="1"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
@@ -3124,29 +3161,29 @@
       <c r="B45" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="C45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>181</v>
+        <v>95</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>182</v>
+        <v>109</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>183</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="M45" s="1"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
@@ -3162,22 +3199,20 @@
         <v>68</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I46" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J46" s="1" t="s">
-        <v>184</v>
+      <c r="J46" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="M46" s="1"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
@@ -3189,24 +3224,24 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G47" s="1" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>175</v>
+        <v>97</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="1" t="s">
-        <v>178</v>
-      </c>
+      <c r="M47" s="1"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
@@ -3218,22 +3253,26 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G48" s="1" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>107</v>
+        <v>183</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="M48" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
@@ -3245,22 +3284,26 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G49" s="1" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="M49" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
@@ -3272,22 +3315,24 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J50" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="M50" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
@@ -3301,15 +3346,17 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J51" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -3324,23 +3371,21 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J52" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="K52" s="1"/>
-      <c r="L52" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
@@ -3357,46 +3402,38 @@
         <v>68</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>82</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -3405,10 +3442,10 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3417,27 +3454,27 @@
         <v>68</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K55" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -3446,27 +3483,27 @@
         <v>68</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="J56" s="1"/>
-      <c r="K56" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="M56" s="1"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -3475,17 +3512,19 @@
         <v>68</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
+      <c r="L57" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
@@ -3493,19 +3532,23 @@
         <v>111</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>150</v>
@@ -3525,18 +3568,20 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="F59" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G59" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -3556,19 +3601,17 @@
         <v>68</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
@@ -3576,7 +3619,7 @@
         <v>111</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3585,58 +3628,52 @@
         <v>68</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J62" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>142</v>
+        <v>180</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3645,27 +3682,27 @@
         <v>68</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="K63" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3691,44 +3728,46 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
+      <c r="L65" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="M65" s="1"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
         <v>68</v>
@@ -3749,10 +3788,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3761,25 +3800,27 @@
         <v>68</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
+      <c r="L67" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="M67" s="1"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3788,10 +3829,10 @@
         <v>68</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>82</v>
@@ -3799,7 +3840,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M68" s="1"/>
     </row>
@@ -3810,50 +3851,48 @@
       <c r="B69" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>150</v>
@@ -3865,10 +3904,10 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3877,27 +3916,25 @@
         <v>68</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3906,27 +3943,27 @@
         <v>68</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>128</v>
+        <v>63</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
+      <c r="L72" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="M72" s="1"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3957,67 +3994,65 @@
       <c r="B74" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="L74" s="1"/>
       <c r="M74" s="1"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J75" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="K75" s="1"/>
-      <c r="L75" s="1" t="s">
-        <v>163</v>
-      </c>
+      <c r="L75" s="1"/>
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -4026,27 +4061,27 @@
         <v>68</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>216</v>
+        <v>128</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J76" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="K76" s="1"/>
-      <c r="L76" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="L76" s="1"/>
       <c r="M76" s="1"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -4055,29 +4090,27 @@
         <v>68</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -4086,29 +4119,27 @@
         <v>68</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -4128,7 +4159,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M79" s="1"/>
     </row>
@@ -4139,25 +4170,29 @@
       <c r="B80" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="C80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M80" s="1"/>
     </row>
@@ -4175,60 +4210,58 @@
         <v>68</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="J81" s="1"/>
-      <c r="K81" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J82" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -4256,10 +4289,10 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -4268,27 +4301,27 @@
         <v>68</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="K84" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -4314,10 +4347,10 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>265</v>
+        <v>152</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -4326,27 +4359,27 @@
         <v>68</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="J86" s="1"/>
-      <c r="K86" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="M86" s="1"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>68</v>
@@ -4359,25 +4392,27 @@
         <v>68</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>149</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
+      <c r="L87" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="M87" s="1"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -4386,25 +4421,29 @@
         <v>68</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>1</v>
+        <v>159</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J88" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="K88" s="1"/>
-      <c r="L88" s="1"/>
+      <c r="L88" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="M88" s="1"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>198</v>
+        <v>265</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4413,27 +4452,27 @@
         <v>68</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>199</v>
+        <v>114</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K89" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -4442,27 +4481,27 @@
         <v>68</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="J90" s="1"/>
-      <c r="K90" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="M90" s="1"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -4471,17 +4510,19 @@
         <v>68</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>82</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
+      <c r="L91" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="M91" s="1"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
@@ -4491,20 +4532,24 @@
       <c r="B92" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="C92" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>16</v>
+        <v>201</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -4513,26 +4558,22 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>212</v>
+        <v>83</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>149</v>
@@ -4544,10 +4585,10 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -4556,27 +4597,27 @@
         <v>68</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J94" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="K94" s="1"/>
-      <c r="L94" s="1" t="s">
-        <v>220</v>
-      </c>
+      <c r="L94" s="1"/>
       <c r="M94" s="1"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -4585,29 +4626,27 @@
         <v>68</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>160</v>
+        <v>12</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K95" s="1"/>
-      <c r="L95" s="1" t="s">
-        <v>219</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L95" s="1"/>
       <c r="M95" s="1"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -4616,44 +4655,42 @@
         <v>68</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>206</v>
+        <v>11</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>213</v>
+        <v>17</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
+      <c r="F97" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G97" s="1" t="s">
-        <v>207</v>
+        <v>10</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>218</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
@@ -4665,24 +4702,26 @@
       <c r="B98" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
@@ -4701,18 +4740,18 @@
         <v>68</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>209</v>
+        <v>1</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="M99" s="1"/>
     </row>
@@ -4730,18 +4769,20 @@
         <v>68</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J100" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="M100" s="1"/>
     </row>
@@ -4759,18 +4800,18 @@
         <v>68</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1" t="s">
-        <v>241</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
     </row>
@@ -4786,45 +4827,45 @@
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J102" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>218</v>
+      </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -4832,10 +4873,10 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4844,54 +4885,56 @@
         <v>68</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="K104" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
+      <c r="F105" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="G105" s="1" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>231</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="J105" s="1"/>
       <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
+      <c r="L105" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="M105" s="1"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -4900,48 +4943,44 @@
         <v>68</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>228</v>
+        <v>16</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>179</v>
+        <v>82</v>
       </c>
       <c r="J106" s="1"/>
-      <c r="K106" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="L106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="M106" s="1"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
-      <c r="L107" s="1" t="s">
-        <v>234</v>
-      </c>
+      <c r="L107" s="1"/>
       <c r="M107" s="1"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
@@ -4951,25 +4990,27 @@
       <c r="B108" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C108" s="1"/>
+      <c r="C108" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1" t="s">
-        <v>236</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
     </row>
@@ -4987,19 +5028,19 @@
         <v>68</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>17</v>
+        <v>224</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J109" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="K109" s="1"/>
-      <c r="L109" s="1" t="s">
-        <v>168</v>
-      </c>
+      <c r="L109" s="1"/>
       <c r="M109" s="1"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
@@ -5012,62 +5053,58 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="F110" s="1"/>
       <c r="G110" s="1" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J110" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="K110" s="1"/>
-      <c r="L110" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="L110" s="1"/>
       <c r="M110" s="1"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>68</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C111" s="1"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
         <v>68</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="K111" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -5076,27 +5113,27 @@
         <v>68</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="J112" s="1"/>
       <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
+      <c r="L112" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="M112" s="1"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -5105,27 +5142,27 @@
         <v>68</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>179</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -5134,10 +5171,10 @@
         <v>68</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>82</v>
@@ -5151,10 +5188,10 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -5163,10 +5200,10 @@
         <v>68</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>82</v>
@@ -5179,78 +5216,150 @@
       <c r="M115" s="1"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
+      <c r="A116" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="1"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>250</v>
+      </c>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
+      <c r="A118" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
+      <c r="F118" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
+      <c r="K118" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
+      <c r="A119" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
+      <c r="F119" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
+      <c r="L119" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
+      <c r="A120" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
+      <c r="F120" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
+      <c r="L120" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="M120" s="1"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
@@ -5733,14 +5842,89 @@
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
     </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+      <c r="J153" s="1"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+      <c r="J154" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M152" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
+  <autoFilter ref="A1:M157" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I152" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I107:I157 I2:I106" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,BIGINT,DECIMAL,DATE,DATETIME,BOOLEAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F152" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C107:F157 C2:F106" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5751,11 +5935,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D7121B-1215-48D4-A4D3-45D65E41B069}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -5763,11 +5947,12 @@
     <col min="1" max="1" width="14.625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="3.375" style="6"/>
+    <col min="4" max="4" width="16.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="3.375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -5778,13 +5963,16 @@
         <v>59</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>255</v>
       </c>
@@ -5794,14 +5982,17 @@
       <c r="C2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>256</v>
       </c>
@@ -5811,14 +6002,17 @@
       <c r="C3" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>257</v>
       </c>
@@ -5828,14 +6022,17 @@
       <c r="C4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>258</v>
       </c>
@@ -5845,14 +6042,17 @@
       <c r="C5" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>259</v>
       </c>
@@ -5862,14 +6062,17 @@
       <c r="C6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>74</v>
+      <c r="D6" s="13" t="b">
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F6" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>260</v>
       </c>
@@ -5879,10 +6082,13 @@
       <c r="C7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5895,22 +6101,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1919F07A-6035-401F-8BBC-36EBD6A36826}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="22.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="3.375" style="6"/>
+    <col min="3" max="3" width="16.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="7.125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>129</v>
       </c>
@@ -5918,51 +6125,63 @@
         <v>130</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>131</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>74</v>
+      <c r="C2" s="13" t="b">
+        <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>74</v>
+      <c r="C3" s="13" t="b">
+        <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5977,9 +6196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3EB3A8-2C2E-4204-8235-DE586BEF311C}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3D64FF-E989-48E5-9720-20624D410208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28267078-B978-4134-B948-5010E429DC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="696" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="135" yWindow="90" windowWidth="26760" windowHeight="15390" tabRatio="696" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="265">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -518,17 +518,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>API通信情報</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>API_COMMUNICATION_DATA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>API通信情報ID</t>
-  </si>
-  <si>
     <t>API名</t>
   </si>
   <si>
@@ -562,14 +551,7 @@
     <t>64</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>256</t>
-  </si>
-  <si>
-    <t>SEQ_API_COMMUNICATION_DATA_ID</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ROOT_LOGIN_INFO</t>
@@ -900,14 +882,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1024</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BOOLEAN</t>
   </si>
   <si>
@@ -924,10 +898,6 @@
   </si>
   <si>
     <t>16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>256</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1378,6 +1348,30 @@
   </si>
   <si>
     <t>36</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API_LOG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API通信ログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SEQ_API_LOG_ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2048</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API通信ログID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1486,7 +1480,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1527,6 +1521,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1846,10 +1843,10 @@
   <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A113" sqref="A113"/>
+      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -1902,7 +1899,7 @@
         <v>41</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>2</v>
@@ -1913,10 +1910,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -1935,7 +1932,7 @@
         <v>83</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1944,10 +1941,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1975,10 +1972,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2006,10 +2003,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2024,21 +2021,21 @@
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2062,10 +2059,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2089,10 +2086,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2118,10 +2115,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2141,16 +2138,16 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2170,16 +2167,16 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2188,10 +2185,10 @@
         <v>68</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>64</v>
@@ -2201,16 +2198,16 @@
         <v>75</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2219,17 +2216,17 @@
         <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2258,7 +2255,7 @@
         <v>71</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2285,7 +2282,7 @@
         <v>83</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2455,7 +2452,7 @@
         <v>88</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2476,17 +2473,17 @@
         <v>68</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2516,7 +2513,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M22" s="1"/>
     </row>
@@ -2545,7 +2542,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M23" s="1"/>
     </row>
@@ -2571,7 +2568,7 @@
         <v>83</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2598,11 +2595,11 @@
         <v>31</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2627,11 +2624,11 @@
         <v>32</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2656,11 +2653,11 @@
         <v>33</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2685,11 +2682,11 @@
         <v>34</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2719,7 +2716,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M29" s="1"/>
     </row>
@@ -2748,7 +2745,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M30" s="1"/>
     </row>
@@ -2776,7 +2773,7 @@
         <v>88</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2880,17 +2877,17 @@
         <v>68</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2920,7 +2917,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M36" s="1"/>
     </row>
@@ -2949,16 +2946,16 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>68</v>
@@ -2974,10 +2971,10 @@
         <v>90</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2986,10 +2983,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3004,7 +3001,7 @@
         <v>83</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3013,10 +3010,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3042,10 +3039,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3069,10 +3066,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3081,27 +3078,27 @@
         <v>68</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3121,16 +3118,16 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3150,389 +3147,381 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>139</v>
+    <row r="45" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="I46" s="12" t="s">
         <v>65</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="H47" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="I47" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+    </row>
+    <row r="49" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+    </row>
+    <row r="50" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+    </row>
+    <row r="51" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I51" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+    </row>
+    <row r="52" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="H52" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I52" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H51" s="1" t="s">
+      <c r="J52" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+    </row>
+    <row r="53" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A52" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
+      <c r="H53" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="I53" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+    </row>
+    <row r="54" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A53" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" s="1" t="s">
+      <c r="H54" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I53" s="1" t="s">
+      <c r="I54" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A54" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I54" s="1" t="s">
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+    </row>
+    <row r="55" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+    </row>
+    <row r="56" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A56" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I56" s="1" t="s">
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="M56" s="12"/>
+    </row>
+    <row r="57" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I57" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A57" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="M57" s="1"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="M57" s="12"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>68</v>
@@ -3545,13 +3534,13 @@
         <v>68</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3560,10 +3549,10 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3572,16 +3561,16 @@
         <v>68</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -3589,10 +3578,10 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3601,10 +3590,10 @@
         <v>68</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>66</v>
@@ -3616,10 +3605,10 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3628,13 +3617,13 @@
         <v>68</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -3643,26 +3632,26 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -3670,10 +3659,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3682,27 +3671,27 @@
         <v>68</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3722,16 +3711,16 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3751,16 +3740,16 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M65" s="1"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>68</v>
@@ -3773,13 +3762,13 @@
         <v>68</v>
       </c>
       <c r="G66" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3788,10 +3777,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3811,16 +3800,16 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M67" s="1"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3840,16 +3829,16 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>68</v>
@@ -3862,13 +3851,13 @@
         <v>68</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -3877,10 +3866,10 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3889,13 +3878,13 @@
         <v>68</v>
       </c>
       <c r="G70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -3904,10 +3893,10 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3916,13 +3905,13 @@
         <v>68</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -3931,10 +3920,10 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3954,16 +3943,16 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M72" s="1"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3983,16 +3972,16 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M73" s="1"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>68</v>
@@ -4005,13 +3994,13 @@
         <v>68</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -4020,10 +4009,10 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -4032,10 +4021,10 @@
         <v>68</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>65</v>
@@ -4049,10 +4038,10 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -4061,10 +4050,10 @@
         <v>68</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>65</v>
@@ -4078,10 +4067,10 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -4090,27 +4079,27 @@
         <v>68</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -4130,16 +4119,16 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -4159,16 +4148,16 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M79" s="1"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>68</v>
@@ -4181,27 +4170,27 @@
         <v>68</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M80" s="1"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -4210,27 +4199,27 @@
         <v>68</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -4239,29 +4228,29 @@
         <v>68</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -4270,29 +4259,29 @@
         <v>68</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M83" s="1"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -4301,27 +4290,27 @@
         <v>68</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -4341,16 +4330,16 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M85" s="1"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -4370,16 +4359,16 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M86" s="1"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>68</v>
@@ -4392,27 +4381,27 @@
         <v>68</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M87" s="1"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -4421,29 +4410,29 @@
         <v>68</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M88" s="1"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4452,27 +4441,27 @@
         <v>68</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -4492,16 +4481,16 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M90" s="1"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -4521,16 +4510,16 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M91" s="1"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>68</v>
@@ -4543,13 +4532,13 @@
         <v>68</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -4558,10 +4547,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -4576,7 +4565,7 @@
         <v>83</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -4585,10 +4574,10 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -4597,7 +4586,7 @@
         <v>68</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>23</v>
@@ -4614,10 +4603,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -4632,21 +4621,21 @@
         <v>12</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -4670,10 +4659,10 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4697,10 +4686,10 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>68</v>
@@ -4713,13 +4702,13 @@
         <v>68</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -4728,10 +4717,10 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -4746,21 +4735,21 @@
         <v>83</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -4769,29 +4758,29 @@
         <v>68</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="M100" s="1"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -4800,16 +4789,16 @@
         <v>68</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -4817,26 +4806,26 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -4844,10 +4833,10 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4856,16 +4845,16 @@
         <v>68</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -4873,10 +4862,10 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4885,27 +4874,27 @@
         <v>68</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4914,7 +4903,7 @@
         <v>68</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>17</v>
@@ -4925,16 +4914,16 @@
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M105" s="1"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -4943,7 +4932,7 @@
         <v>68</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>16</v>
@@ -4954,29 +4943,29 @@
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M106" s="1"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -4985,10 +4974,10 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>68</v>
@@ -4999,10 +4988,10 @@
         <v>68</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>65</v>
@@ -5016,10 +5005,10 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -5028,16 +5017,16 @@
         <v>68</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -5045,26 +5034,26 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -5072,10 +5061,10 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -5084,27 +5073,27 @@
         <v>68</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -5113,10 +5102,10 @@
         <v>68</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>64</v>
@@ -5124,16 +5113,16 @@
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M112" s="1"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -5142,27 +5131,27 @@
         <v>68</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -5171,7 +5160,7 @@
         <v>68</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>17</v>
@@ -5182,16 +5171,16 @@
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M114" s="1"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -5200,7 +5189,7 @@
         <v>68</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>16</v>
@@ -5211,16 +5200,16 @@
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M115" s="1"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>68</v>
@@ -5231,16 +5220,16 @@
         <v>68</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -5248,10 +5237,10 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -5260,16 +5249,16 @@
         <v>68</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -5277,10 +5266,10 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -5289,27 +5278,27 @@
         <v>68</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -5329,16 +5318,16 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -5358,7 +5347,7 @@
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M120" s="1"/>
     </row>
@@ -5921,10 +5910,10 @@
   <autoFilter ref="A1:M157" xr:uid="{D331EE80-1D38-4FC8-B9AA-C997A008C08F}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I107:I157 I2:I106" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I157" xr:uid="{E4060F6C-9258-4096-874D-7937C33CB031}">
       <formula1>"VARCHAR,INT,BIGINT,DECIMAL,DATE,DATETIME,BOOLEAN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C107:F157 C2:F106" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F157" xr:uid="{B0449F92-B1F5-49C1-9C0A-EEE485998155}">
       <formula1>",1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5963,7 +5952,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>63</v>
@@ -5974,10 +5963,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>76</v>
@@ -5989,15 +5978,15 @@
         <v>74</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>77</v>
@@ -6009,15 +5998,15 @@
         <v>74</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>78</v>
@@ -6029,15 +6018,15 @@
         <v>74</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>81</v>
@@ -6049,15 +6038,15 @@
         <v>74</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>79</v>
@@ -6074,10 +6063,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>80</v>
@@ -6089,7 +6078,7 @@
         <v>74</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -6119,13 +6108,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>63</v>
@@ -6136,10 +6125,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C2" s="13" t="b">
         <v>0</v>
@@ -6153,10 +6142,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C3" s="13" t="b">
         <v>0</v>
@@ -6170,10 +6159,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C4" s="13" t="b">
         <v>0</v>
@@ -6211,22 +6200,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>63</v>
@@ -6237,54 +6226,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D2" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F2" s="11" t="b">
         <v>0</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D3" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F3" s="11" t="b">
         <v>0</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -6311,13 +6300,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>63</v>
@@ -6328,53 +6317,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C2" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C3" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C4" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28267078-B978-4134-B948-5010E429DC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE72EA01-3CD9-4B9F-99F7-2538C0675B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="90" windowWidth="26760" windowHeight="15390" tabRatio="696" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="-15" yWindow="0" windowWidth="25140" windowHeight="8775" tabRatio="696" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="266">
   <si>
     <t>PRIMARY_KEY</t>
     <phoneticPr fontId="1"/>
@@ -424,10 +424,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>128</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SHA-256でハッシュ化して保存</t>
     <rPh sb="12" eb="13">
       <t>カ</t>
@@ -1372,6 +1368,14 @@
   </si>
   <si>
     <t>API通信ログID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>512</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1379,7 +1383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1429,13 +1433,6 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1480,7 +1477,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1517,13 +1514,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1842,11 +1833,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
   <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.4"/>
@@ -1899,7 +1890,7 @@
         <v>41</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>2</v>
@@ -1910,10 +1901,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>68</v>
@@ -1929,10 +1920,10 @@
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1941,10 +1932,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1966,16 +1957,16 @@
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1995,7 +1986,7 @@
         <v>65</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2003,10 +1994,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -2021,21 +2012,21 @@
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -2059,10 +2050,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -2086,10 +2077,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -2115,10 +2106,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2133,21 +2124,21 @@
         <v>17</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2162,21 +2153,21 @@
         <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2185,29 +2176,29 @@
         <v>68</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2216,17 +2207,17 @@
         <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2255,7 +2246,7 @@
         <v>71</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -2279,10 +2270,10 @@
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -2425,7 +2416,7 @@
         <v>52</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2446,13 +2437,13 @@
         <v>68</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -2473,17 +2464,17 @@
         <v>68</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>172</v>
+        <v>264</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2508,12 +2499,12 @@
         <v>17</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M22" s="1"/>
     </row>
@@ -2537,12 +2528,12 @@
         <v>16</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M23" s="1"/>
     </row>
@@ -2565,10 +2556,10 @@
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2595,11 +2586,11 @@
         <v>31</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2624,11 +2615,11 @@
         <v>32</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2653,11 +2644,11 @@
         <v>33</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2682,11 +2673,11 @@
         <v>34</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -2711,12 +2702,12 @@
         <v>17</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M29" s="1"/>
     </row>
@@ -2740,12 +2731,12 @@
         <v>16</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M30" s="1"/>
     </row>
@@ -2767,13 +2758,13 @@
         <v>68</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -2848,7 +2839,7 @@
         <v>68</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>59</v>
@@ -2877,17 +2868,17 @@
         <v>68</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2912,12 +2903,12 @@
         <v>63</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M36" s="1"/>
     </row>
@@ -2941,21 +2932,21 @@
         <v>61</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>68</v>
@@ -2968,13 +2959,13 @@
         <v>68</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -2983,10 +2974,10 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -2998,10 +2989,10 @@
         <v>1</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
@@ -3010,10 +3001,10 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -3022,10 +3013,10 @@
         <v>68</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>65</v>
@@ -3039,10 +3030,10 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -3051,13 +3042,13 @@
         <v>68</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -3066,10 +3057,10 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3078,27 +3069,27 @@
         <v>68</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I42" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3113,21 +3104,21 @@
         <v>63</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3142,386 +3133,386 @@
         <v>61</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="12" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I51" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-    </row>
-    <row r="46" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B46" s="12" t="s">
+      <c r="B52" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J46" s="12" t="s">
+      <c r="B53" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-    </row>
-    <row r="47" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B47" s="12" t="s">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-    </row>
-    <row r="48" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B48" s="12" t="s">
+      <c r="B54" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-    </row>
-    <row r="49" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B49" s="12" t="s">
+      <c r="B55" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-    </row>
-    <row r="50" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B50" s="12" t="s">
+      <c r="B56" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J50" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-    </row>
-    <row r="51" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-    </row>
-    <row r="52" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J52" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-    </row>
-    <row r="53" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-    </row>
-    <row r="54" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-    </row>
-    <row r="55" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-    </row>
-    <row r="56" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="M56" s="12"/>
-    </row>
-    <row r="57" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="G57" s="12" t="s">
+      <c r="B57" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="H57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I57" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="M57" s="12"/>
+      <c r="I57" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>68</v>
@@ -3534,13 +3525,13 @@
         <v>68</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3549,10 +3540,10 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -3561,16 +3552,16 @@
         <v>68</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -3578,10 +3569,10 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -3590,10 +3581,10 @@
         <v>68</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H60" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>66</v>
@@ -3605,10 +3596,10 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -3617,13 +3608,13 @@
         <v>68</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -3632,26 +3623,26 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -3659,10 +3650,10 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -3671,27 +3662,27 @@
         <v>68</v>
       </c>
       <c r="G63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I63" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -3706,21 +3697,21 @@
         <v>63</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -3735,21 +3726,21 @@
         <v>61</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M65" s="1"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>68</v>
@@ -3762,13 +3753,13 @@
         <v>68</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
@@ -3777,10 +3768,10 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3795,21 +3786,21 @@
         <v>61</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M67" s="1"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3824,21 +3815,21 @@
         <v>63</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M68" s="1"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>68</v>
@@ -3851,13 +3842,13 @@
         <v>68</v>
       </c>
       <c r="G69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="I69" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
@@ -3866,10 +3857,10 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3878,13 +3869,13 @@
         <v>68</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
@@ -3893,10 +3884,10 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3905,13 +3896,13 @@
         <v>68</v>
       </c>
       <c r="G71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H71" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="I71" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
@@ -3920,10 +3911,10 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3938,21 +3929,21 @@
         <v>63</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M72" s="1"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3967,21 +3958,21 @@
         <v>61</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M73" s="1"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>68</v>
@@ -3994,13 +3985,13 @@
         <v>68</v>
       </c>
       <c r="G74" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H74" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="I74" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
@@ -4009,10 +4000,10 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -4021,10 +4012,10 @@
         <v>68</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>65</v>
@@ -4038,10 +4029,10 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -4050,10 +4041,10 @@
         <v>68</v>
       </c>
       <c r="G76" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>65</v>
@@ -4067,10 +4058,10 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -4079,27 +4070,27 @@
         <v>68</v>
       </c>
       <c r="G77" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H77" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I77" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -4114,21 +4105,21 @@
         <v>63</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M78" s="1"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -4143,21 +4134,21 @@
         <v>61</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M79" s="1"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>68</v>
@@ -4170,27 +4161,27 @@
         <v>68</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M80" s="1"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -4199,27 +4190,27 @@
         <v>68</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -4228,29 +4219,29 @@
         <v>68</v>
       </c>
       <c r="G82" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K82" s="1"/>
       <c r="L82" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M82" s="1"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -4259,29 +4250,29 @@
         <v>68</v>
       </c>
       <c r="G83" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K83" s="1"/>
       <c r="L83" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M83" s="1"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -4290,27 +4281,27 @@
         <v>68</v>
       </c>
       <c r="G84" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I84" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -4325,21 +4316,21 @@
         <v>63</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M85" s="1"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -4354,21 +4345,21 @@
         <v>61</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M86" s="1"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>68</v>
@@ -4381,27 +4372,27 @@
         <v>68</v>
       </c>
       <c r="G87" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="I87" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M87" s="1"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -4410,29 +4401,29 @@
         <v>68</v>
       </c>
       <c r="G88" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="I88" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M88" s="1"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -4441,27 +4432,27 @@
         <v>68</v>
       </c>
       <c r="G89" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H89" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I89" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -4476,21 +4467,21 @@
         <v>63</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M90" s="1"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -4505,21 +4496,21 @@
         <v>61</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M91" s="1"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>68</v>
@@ -4532,13 +4523,13 @@
         <v>68</v>
       </c>
       <c r="G92" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="I92" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
@@ -4547,10 +4538,10 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -4562,10 +4553,10 @@
         <v>1</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
@@ -4574,10 +4565,10 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -4586,7 +4577,7 @@
         <v>68</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>23</v>
@@ -4603,10 +4594,10 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -4621,21 +4612,21 @@
         <v>12</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -4650,7 +4641,7 @@
         <v>17</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -4659,10 +4650,10 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4677,7 +4668,7 @@
         <v>16</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -4686,10 +4677,10 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>68</v>
@@ -4702,13 +4693,13 @@
         <v>68</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -4717,10 +4708,10 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -4732,24 +4723,24 @@
         <v>1</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M99" s="1"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -4758,29 +4749,29 @@
         <v>68</v>
       </c>
       <c r="G100" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M100" s="1"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -4789,16 +4780,16 @@
         <v>68</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -4806,26 +4797,26 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -4833,10 +4824,10 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4845,16 +4836,16 @@
         <v>68</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -4862,10 +4853,10 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4874,27 +4865,27 @@
         <v>68</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4903,27 +4894,27 @@
         <v>68</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M105" s="1"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -4932,40 +4923,40 @@
         <v>68</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M106" s="1"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
@@ -4974,10 +4965,10 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>68</v>
@@ -4988,10 +4979,10 @@
         <v>68</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>65</v>
@@ -5005,10 +4996,10 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -5017,16 +5008,16 @@
         <v>68</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -5034,26 +5025,26 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H110" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -5061,10 +5052,10 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -5073,27 +5064,27 @@
         <v>68</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -5102,10 +5093,10 @@
         <v>68</v>
       </c>
       <c r="G112" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>64</v>
@@ -5113,16 +5104,16 @@
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M112" s="1"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -5131,27 +5122,27 @@
         <v>68</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -5160,27 +5151,27 @@
         <v>68</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M114" s="1"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -5189,27 +5180,27 @@
         <v>68</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M115" s="1"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>68</v>
@@ -5220,16 +5211,16 @@
         <v>68</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -5237,10 +5228,10 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -5249,16 +5240,16 @@
         <v>68</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -5266,10 +5257,10 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -5278,27 +5269,27 @@
         <v>68</v>
       </c>
       <c r="G118" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H118" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H118" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="I118" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -5313,21 +5304,21 @@
         <v>63</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M119" s="1"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -5342,12 +5333,12 @@
         <v>61</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M120" s="1"/>
     </row>
@@ -5952,7 +5943,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>63</v>
@@ -5963,122 +5954,122 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="13" t="b">
+        <v>75</v>
+      </c>
+      <c r="D2" s="12" t="b">
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>249</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="13" t="b">
+        <v>76</v>
+      </c>
+      <c r="D3" s="12" t="b">
         <v>0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="13" t="b">
+        <v>77</v>
+      </c>
+      <c r="D4" s="12" t="b">
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="13" t="b">
+        <v>80</v>
+      </c>
+      <c r="D5" s="12" t="b">
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="13" t="b">
+        <v>78</v>
+      </c>
+      <c r="D6" s="12" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -6108,13 +6099,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>63</v>
@@ -6125,53 +6116,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="13" t="b">
+        <v>128</v>
+      </c>
+      <c r="C2" s="12" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" s="13" t="b">
+        <v>129</v>
+      </c>
+      <c r="C3" s="12" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="13" t="b">
+        <v>130</v>
+      </c>
+      <c r="C4" s="12" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -6200,22 +6191,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>63</v>
@@ -6226,54 +6217,54 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D2" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F2" s="11" t="b">
         <v>0</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D3" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F3" s="11" t="b">
         <v>0</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -6300,13 +6291,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>63</v>
@@ -6317,53 +6308,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C3" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C4" s="11" t="b">
         <v>0</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/ha-asset/02_db/DB.xlsx
+++ b/ha-asset/02_db/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\02_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE72EA01-3CD9-4B9F-99F7-2538C0675B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D7B32A-1F3B-4B2F-8CB7-3AAB19D22AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="0" windowWidth="25140" windowHeight="8775" tabRatio="696" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
+    <workbookView xWindow="1095" yWindow="1065" windowWidth="26085" windowHeight="13965" tabRatio="696" activeTab="1" xr2:uid="{683FFC2D-57D1-4D92-A2B8-4E505AD13A7A}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE_LIST" sheetId="1" r:id="rId1"/>
@@ -1833,7 +1833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4943154E-E197-4DDD-ACD8-DEAC3E0A272D}">
   <dimension ref="A1:M157"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -5917,9 +5917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85D7121B-1215-48D4-A4D3-45D65E41B069}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -6176,7 +6176,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3EB3A8-2C2E-4204-8235-DE586BEF311C}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -6278,13 +6281,14 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.375" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -6371,7 +6375,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
